--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>骷髅</t>
+  </si>
+  <si>
+    <t>Creature/Human/Human_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>人类</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1035,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B50" sqref="B50"/>
+      <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1082,6 +1088,17 @@
       </c>
       <c r="C4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,18 @@
     <t>res_name</t>
   </si>
   <si>
+    <t>size_spine</t>
+  </si>
+  <si>
+    <t>ui_show_spine</t>
+  </si>
+  <si>
+    <t>ui_data_s</t>
+  </si>
+  <si>
+    <t>ui_data_b</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -44,25 +56,79 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
     <t>资源名字</t>
   </si>
   <si>
+    <t>spine大小缩放</t>
+  </si>
+  <si>
+    <t>ui展示spine</t>
+  </si>
+  <si>
+    <t>ui-小卡-大小坐标</t>
+  </si>
+  <si>
+    <t>ui-大卡-大小坐标</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
     <t>Creature/Skeleton/Skeleton_SkeletonData.asset</t>
   </si>
   <si>
+    <t>2.5;-10,-150</t>
+  </si>
+  <si>
+    <t>4;-10,-150</t>
+  </si>
+  <si>
     <t>骷髅</t>
   </si>
   <si>
     <t>Creature/Human/Human_SkeletonData.asset</t>
   </si>
   <si>
+    <t>2.5;0,-150</t>
+  </si>
+  <si>
+    <t>4;0,-150</t>
+  </si>
+  <si>
     <t>人类</t>
+  </si>
+  <si>
+    <t>Creature/Other/Aoliweiya/aoliweiya_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Creature/Other/Aoliweiya/aoliweiya_avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.16;0,-70</t>
+  </si>
+  <si>
+    <t>0.15;0,-30</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Creature/Other/Taobaibai_Q/Baitaotao_Q_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.5;0,-80</t>
+  </si>
+  <si>
+    <t>1.2;0,-150</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
 </sst>
 </file>
@@ -75,12 +141,11 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,7 +153,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,14 +160,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,7 +173,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,7 +180,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,7 +187,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,7 +194,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,14 +201,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,7 +214,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,7 +221,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,14 +228,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,42 +241,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -533,153 +573,303 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="51">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,77 +1220,175 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B17" sqref="B17"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="62.625" customWidth="1"/>
-    <col min="3" max="3" width="42.875" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1" style="50"/>
+    <col min="2" max="6" width="62.625" customWidth="1" style="50"/>
+    <col min="7" max="7" width="42.875" customWidth="1" style="50"/>
+    <col min="8" max="8" width="25.125" customWidth="1" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="50">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="B4" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="50">
+        <v>1</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="50">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="B5" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="50">
+        <v>1</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>24</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="50">
+        <v>999998</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="50">
+        <v>999999</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1"/>
     <row r="21" ht="15" customHeight="1"/>
     <row r="22" ht="15" customHeight="1"/>
     <row r="23" ht="15" customHeight="1"/>
@@ -1111,7 +1399,7 @@
     <row r="28" ht="15" customHeight="1"/>
     <row r="29" ht="15" customHeight="1"/>
     <row r="30" ht="15" customHeight="1"/>
-    <row r="31" ht="15" customHeight="1"/>
+    <row r="62" ht="12" customHeight="1"/>
     <row r="63" ht="12" customHeight="1"/>
     <row r="64" ht="12" customHeight="1"/>
     <row r="65" ht="12" customHeight="1"/>
@@ -1120,9 +1408,8 @@
     <row r="68" ht="12" customHeight="1"/>
     <row r="69" ht="12" customHeight="1"/>
     <row r="70" ht="12" customHeight="1"/>
-    <row r="71" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:N88">
+  <sortState ref="A4:R88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModel" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -104,6 +104,66 @@
     <t>人类</t>
   </si>
   <si>
+    <t>Creature/Other/Aoliweiya_ChongChong/Aoliweiya_ChongChong_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;5,-80</t>
+  </si>
+  <si>
+    <t>0.5;10,-220</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>Creature/Other/Alice_Q/Alice_2_Q_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.5;0,-60</t>
+  </si>
+  <si>
+    <t>1.5;0,-180</t>
+  </si>
+  <si>
+    <t>Creature/Other/Alice_Q/Alice_Q_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Creature/Other/Taobaibai_Q/Baitaotao_Q_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.5;0,-80</t>
+  </si>
+  <si>
+    <t>1.5;0,-200</t>
+  </si>
+  <si>
+    <t>Creature/Other/Asitelinna/Asitelinna_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Creature/Other/Asitelinna/Asitelinna_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;0,-80</t>
+  </si>
+  <si>
+    <t>0.12;0,20</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Creature/Other/Amelia/Amelia_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Creature/Other/Amelia/Amelia_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;0,-70</t>
+  </si>
+  <si>
+    <t>0.12;0,-260</t>
+  </si>
+  <si>
     <t>Creature/Other/Aoliweiya/aoliweiya_SkeletonData.asset</t>
   </si>
   <si>
@@ -114,21 +174,6 @@
   </si>
   <si>
     <t>0.15;0,-30</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Creature/Other/Taobaibai_Q/Baitaotao_Q_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>0.5;0,-80</t>
-  </si>
-  <si>
-    <t>1.2;0,-150</t>
-  </si>
-  <si>
-    <t>测试</t>
   </si>
 </sst>
 </file>
@@ -1220,12 +1265,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1325,7 +1370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="50">
         <v>2</v>
       </c>
@@ -1345,69 +1390,175 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="27" customHeight="1">
       <c r="A6" s="50">
-        <v>999998</v>
+        <v>989996</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="50" t="s">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="F6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="G6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="50" t="s">
+    </row>
+    <row r="7" ht="27" customHeight="1">
+      <c r="A7" s="50">
+        <v>989997</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="50">
-        <v>999999</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>30</v>
       </c>
       <c r="C7" s="50">
         <v>0.3</v>
       </c>
       <c r="E7" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="G7" s="50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1">
+      <c r="A8" s="50">
+        <v>989998</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="C8" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="50">
+        <v>989999</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>33</v>
       </c>
+      <c r="C9" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="20" ht="15" customHeight="1"/>
-    <row r="21" ht="15" customHeight="1"/>
-    <row r="22" ht="15" customHeight="1"/>
-    <row r="23" ht="15" customHeight="1"/>
-    <row r="24" ht="15" customHeight="1"/>
-    <row r="25" ht="15" customHeight="1"/>
+    <row r="10">
+      <c r="A10" s="50">
+        <v>999996</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="50">
+        <v>999997</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="50">
+        <v>999998</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="26" ht="15" customHeight="1"/>
     <row r="27" ht="15" customHeight="1"/>
     <row r="28" ht="15" customHeight="1"/>
     <row r="29" ht="15" customHeight="1"/>
     <row r="30" ht="15" customHeight="1"/>
-    <row r="62" ht="12" customHeight="1"/>
-    <row r="63" ht="12" customHeight="1"/>
-    <row r="64" ht="12" customHeight="1"/>
-    <row r="65" ht="12" customHeight="1"/>
-    <row r="66" ht="12" customHeight="1"/>
-    <row r="67" ht="12" customHeight="1"/>
+    <row r="31" ht="15" customHeight="1"/>
+    <row r="32" ht="15" customHeight="1"/>
+    <row r="33" ht="15" customHeight="1"/>
+    <row r="34" ht="15" customHeight="1"/>
+    <row r="35" ht="15" customHeight="1"/>
+    <row r="36" ht="15" customHeight="1"/>
     <row r="68" ht="12" customHeight="1"/>
     <row r="69" ht="12" customHeight="1"/>
     <row r="70" ht="12" customHeight="1"/>
+    <row r="71" ht="12" customHeight="1"/>
+    <row r="72" ht="12" customHeight="1"/>
+    <row r="73" ht="12" customHeight="1"/>
+    <row r="74" ht="12" customHeight="1"/>
+    <row r="75" ht="12" customHeight="1"/>
+    <row r="76" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:R88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="CreatureModel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -137,6 +137,33 @@
     <t>1.5;0,-200</t>
   </si>
   <si>
+    <t>Creature/Other/Kaola/Kaola_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Creature/Other/Kaola/Kaola_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.2;5,-60</t>
+  </si>
+  <si>
+    <t>0.15;0,-280</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Creature/Other/Bandelu/Bandelu_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Creature/Other/Bandelu/Bandelu_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;5,-90</t>
+  </si>
+  <si>
+    <t>0.16;0,-220</t>
+  </si>
+  <si>
     <t>Creature/Other/Asitelinna/Asitelinna_SkeletonData.asset</t>
   </si>
   <si>
@@ -149,9 +176,6 @@
     <t>0.12;0,20</t>
   </si>
   <si>
-    <t>Test2</t>
-  </si>
-  <si>
     <t>Creature/Other/Amelia/Amelia_SkeletonData.asset</t>
   </si>
   <si>
@@ -164,10 +188,10 @@
     <t>0.12;0,-260</t>
   </si>
   <si>
-    <t>Creature/Other/Aoliweiya/aoliweiya_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Creature/Other/Aoliweiya/aoliweiya_avator_SkeletonData.asset</t>
+    <t>Creature/Other/Aoliweiya/Aoliweiya_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Creature/Other/Aoliweiya/Aoliweiya_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.16;0,-70</t>
@@ -191,6 +215,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,6 +223,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,12 +231,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,6 +246,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,6 +254,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,6 +262,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,6 +270,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,12 +278,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,6 +293,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,6 +301,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,12 +309,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,30 +324,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -763,158 +806,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1265,282 +1158,327 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1" style="50"/>
-    <col min="2" max="6" width="62.625" customWidth="1" style="50"/>
-    <col min="7" max="7" width="42.875" customWidth="1" style="50"/>
-    <col min="8" max="8" width="25.125" customWidth="1" style="50"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="84.125" customWidth="1"/>
+    <col min="3" max="6" width="62.625" customWidth="1"/>
+    <col min="7" max="7" width="42.875" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="50">
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="50">
+    <row r="5" ht="15" customHeight="1" spans="1:7">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1">
-      <c r="A6" s="50">
+    <row r="6" ht="27" customHeight="1" spans="1:7">
+      <c r="A6">
         <v>989996</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:7">
+      <c r="A7">
+        <v>989997</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
         <v>0.3</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="27" customHeight="1">
-      <c r="A7" s="50">
-        <v>989997</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="50">
+    <row r="8" ht="27" customHeight="1" spans="1:7">
+      <c r="A8">
+        <v>989998</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
         <v>0.3</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="27" customHeight="1">
-      <c r="A8" s="50">
-        <v>989998</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="50">
+    <row r="9" ht="27" customHeight="1" spans="1:7">
+      <c r="A9">
+        <v>989999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
         <v>0.3</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="50" t="s">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="27" customHeight="1">
-      <c r="A9" s="50">
-        <v>989999</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="50">
-        <v>0.3</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>28</v>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>999994</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>0.12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="50">
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>999995</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
         <v>999996</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="50">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
         <v>0.1</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="50" t="s">
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="50">
+    <row r="13" spans="1:7">
+      <c r="A13">
         <v>999997</v>
       </c>
-      <c r="B11" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="50">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
         <v>0.1</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="50" t="s">
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="50">
+    <row r="14" ht="15" customHeight="1" spans="1:7">
+      <c r="A14">
         <v>999998</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="50">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>0.1</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="50" t="s">
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1"/>
-    <row r="27" ht="15" customHeight="1"/>
     <row r="28" ht="15" customHeight="1"/>
     <row r="29" ht="15" customHeight="1"/>
     <row r="30" ht="15" customHeight="1"/>
@@ -1550,8 +1488,8 @@
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
     <row r="36" ht="15" customHeight="1"/>
-    <row r="68" ht="12" customHeight="1"/>
-    <row r="69" ht="12" customHeight="1"/>
+    <row r="37" ht="15" customHeight="1"/>
+    <row r="38" ht="15" customHeight="1"/>
     <row r="70" ht="12" customHeight="1"/>
     <row r="71" ht="12" customHeight="1"/>
     <row r="72" ht="12" customHeight="1"/>
@@ -1559,6 +1497,8 @@
     <row r="74" ht="12" customHeight="1"/>
     <row r="75" ht="12" customHeight="1"/>
     <row r="76" ht="12" customHeight="1"/>
+    <row r="77" ht="12" customHeight="1"/>
+    <row r="78" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:R88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="12195" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModel" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -137,6 +137,21 @@
     <t>1.5;0,-200</t>
   </si>
   <si>
+    <t>Creature/Other/Bunny/Bunny_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Creature/Other/Bunny/Bunny_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.2;5,-100</t>
+  </si>
+  <si>
+    <t>0.15;0,-300</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
     <t>Creature/Other/Kaola/Kaola_SkeletonData.asset</t>
   </si>
   <si>
@@ -149,9 +164,6 @@
     <t>0.15;0,-280</t>
   </si>
   <si>
-    <t>Test2</t>
-  </si>
-  <si>
     <t>Creature/Other/Bandelu/Bandelu_SkeletonData.asset</t>
   </si>
   <si>
@@ -198,6 +210,18 @@
   </si>
   <si>
     <t>0.15;0,-30</t>
+  </si>
+  <si>
+    <t>Creature/Other/Dunniang/Dunniang_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Creature/Other/Dunniang/Dunniang_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.25;0,-80</t>
+  </si>
+  <si>
+    <t>0.3;0,-230</t>
   </si>
 </sst>
 </file>
@@ -1158,12 +1182,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1366,13 +1390,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>999994</v>
+        <v>999993</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
@@ -1389,13 +1413,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>999995</v>
+        <v>999994</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -1412,7 +1436,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>999996</v>
+        <v>999995</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
@@ -1435,7 +1459,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>999997</v>
+        <v>999996</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
@@ -1456,9 +1480,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14">
-        <v>999998</v>
+        <v>999997</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -1479,7 +1503,52 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1"/>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15">
+        <v>999998</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>999999</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>0.14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="29" ht="15" customHeight="1"/>
     <row r="30" ht="15" customHeight="1"/>
     <row r="31" ht="15" customHeight="1"/>
@@ -1490,7 +1559,7 @@
     <row r="36" ht="15" customHeight="1"/>
     <row r="37" ht="15" customHeight="1"/>
     <row r="38" ht="15" customHeight="1"/>
-    <row r="70" ht="12" customHeight="1"/>
+    <row r="39" ht="15" customHeight="1"/>
     <row r="71" ht="12" customHeight="1"/>
     <row r="72" ht="12" customHeight="1"/>
     <row r="73" ht="12" customHeight="1"/>
@@ -1499,6 +1568,7 @@
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
     <row r="78" ht="12" customHeight="1"/>
+    <row r="79" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:R88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12195" windowHeight="10860"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
     <t>Creature/Human/Human_SkeletonData.asset</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2.5;0,-150</t>
   </si>
   <si>
@@ -135,6 +138,36 @@
   </si>
   <si>
     <t>1.5;0,-200</t>
+  </si>
+  <si>
+    <t>Creature/Other/Emma/Emma_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>Creature/Other/Emma/Emma_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.22;5,-90</t>
+  </si>
+  <si>
+    <t>0.115;0,-235</t>
+  </si>
+  <si>
+    <t>Creature/Other/Eleamor/Eleamor_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>Creature/Other/Eleamor/Eleamor_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.2;5,-85</t>
+  </si>
+  <si>
+    <t>0.12;0,-250</t>
   </si>
   <si>
     <t>Creature/Other/Bunny/Bunny_SkeletonData.asset</t>
@@ -239,7 +272,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,7 +279,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,14 +286,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,7 +299,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,7 +306,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,7 +313,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,7 +320,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,14 +327,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,7 +340,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,7 +347,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,14 +354,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,35 +367,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -830,8 +844,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="51">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,375 +1346,413 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="84.125" customWidth="1"/>
-    <col min="3" max="6" width="62.625" customWidth="1"/>
-    <col min="7" max="7" width="42.875" customWidth="1"/>
-    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1" style="50"/>
+    <col min="2" max="2" width="84.125" customWidth="1" style="50"/>
+    <col min="3" max="6" width="62.625" customWidth="1" style="50"/>
+    <col min="7" max="7" width="42.875" customWidth="1" style="50"/>
+    <col min="8" max="8" width="25.125" customWidth="1" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="50">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="50">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="50">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="50" t="s">
         <v>24</v>
       </c>
+      <c r="G5" s="50" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:7">
-      <c r="A6">
+    <row r="6" ht="27" customHeight="1">
+      <c r="A6" s="50">
         <v>989996</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="50">
         <v>0.1</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="50" t="s">
         <v>28</v>
       </c>
+      <c r="G6" s="50" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" ht="27" customHeight="1" spans="1:7">
-      <c r="A7">
+    <row r="7" ht="27" customHeight="1">
+      <c r="A7" s="50">
         <v>989997</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C7">
+    </row>
+    <row r="8" ht="27" customHeight="1">
+      <c r="A8" s="50">
+        <v>989998</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="50">
         <v>0.3</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E8" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
+      <c r="F8" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="8" ht="27" customHeight="1" spans="1:7">
-      <c r="A8">
-        <v>989998</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="50">
+        <v>989999</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="50">
         <v>0.3</v>
       </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
+      <c r="E9" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="9" ht="27" customHeight="1" spans="1:7">
-      <c r="A9">
-        <v>989999</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>0.3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
+    <row r="10" ht="27" customHeight="1">
+      <c r="A10" s="50">
+        <v>999991</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
+    <row r="11" ht="27" customHeight="1">
+      <c r="A11" s="50">
+        <v>999992</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="50">
         <v>999993</v>
       </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10">
+      <c r="B12" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="50">
         <v>0.1</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
+      <c r="D12" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
+    <row r="13">
+      <c r="A13" s="50">
         <v>999994</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+      <c r="B13" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="50">
         <v>0.12</v>
       </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
+      <c r="D13" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
+    <row r="14">
+      <c r="A14" s="50">
         <v>999995</v>
       </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12">
+      <c r="B14" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="50">
         <v>0.1</v>
       </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
+      <c r="D14" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
+    <row r="15">
+      <c r="A15" s="50">
         <v>999996</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13">
+      <c r="B15" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="50">
         <v>0.1</v>
       </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D15" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
+    <row r="16">
+      <c r="A16" s="50">
         <v>999997</v>
       </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14">
+      <c r="B16" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="50">
         <v>0.1</v>
       </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
+      <c r="D16" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:7">
-      <c r="A15">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="50">
         <v>999998</v>
       </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15">
+      <c r="B17" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="50">
         <v>0.1</v>
       </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
+      <c r="D17" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
+    <row r="18">
+      <c r="A18" s="50">
         <v>999999</v>
       </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16">
+      <c r="B18" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="50">
         <v>0.14</v>
       </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" t="s">
-        <v>40</v>
+      <c r="D18" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1"/>
-    <row r="30" ht="15" customHeight="1"/>
     <row r="31" ht="15" customHeight="1"/>
     <row r="32" ht="15" customHeight="1"/>
     <row r="33" ht="15" customHeight="1"/>
@@ -1560,8 +1762,8 @@
     <row r="37" ht="15" customHeight="1"/>
     <row r="38" ht="15" customHeight="1"/>
     <row r="39" ht="15" customHeight="1"/>
-    <row r="71" ht="12" customHeight="1"/>
-    <row r="72" ht="12" customHeight="1"/>
+    <row r="40" ht="15" customHeight="1"/>
+    <row r="41" ht="15" customHeight="1"/>
     <row r="73" ht="12" customHeight="1"/>
     <row r="74" ht="12" customHeight="1"/>
     <row r="75" ht="12" customHeight="1"/>
@@ -1569,6 +1771,8 @@
     <row r="77" ht="12" customHeight="1"/>
     <row r="78" ht="12" customHeight="1"/>
     <row r="79" ht="12" customHeight="1"/>
+    <row r="80" ht="12" customHeight="1"/>
+    <row r="81" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:R88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -140,6 +140,39 @@
     <t>1.5;0,-200</t>
   </si>
   <si>
+    <t>Creature/Other/Feizhalixiu/Feizhalixiu_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Creature/Other/Feizhalixiu/Feizhalixiu_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;5,-90</t>
+  </si>
+  <si>
+    <t>0.12;0,-250</t>
+  </si>
+  <si>
+    <t>Creature/Other/Eris/Eris_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>Creature/Other/Eris/Eris_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.2;5,-80</t>
+  </si>
+  <si>
+    <t>0.13;0,-250</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
     <t>Creature/Other/Emma/Emma_SkeletonData.asset</t>
   </si>
   <si>
@@ -158,18 +191,12 @@
     <t>Creature/Other/Eleamor/Eleamor_SkeletonData.asset</t>
   </si>
   <si>
-    <t>0.11</t>
-  </si>
-  <si>
     <t>Creature/Other/Eleamor/Eleamor_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;5,-85</t>
   </si>
   <si>
-    <t>0.12;0,-250</t>
-  </si>
-  <si>
     <t>Creature/Other/Bunny/Bunny_SkeletonData.asset</t>
   </si>
   <si>
@@ -182,9 +209,6 @@
     <t>0.15;0,-300</t>
   </si>
   <si>
-    <t>Test2</t>
-  </si>
-  <si>
     <t>Creature/Other/Kaola/Kaola_SkeletonData.asset</t>
   </si>
   <si>
@@ -201,9 +225,6 @@
   </si>
   <si>
     <t>Creature/Other/Bandelu/Bandelu_Avator_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>0.18;5,-90</t>
   </si>
   <si>
     <t>0.16;0,-220</t>
@@ -1346,12 +1367,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1554,7 +1575,7 @@
     </row>
     <row r="10" ht="27" customHeight="1">
       <c r="A10" s="50">
-        <v>999991</v>
+        <v>999989</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>37</v>
@@ -1574,7 +1595,7 @@
     </row>
     <row r="11" ht="27" customHeight="1">
       <c r="A11" s="50">
-        <v>999992</v>
+        <v>999990</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>42</v>
@@ -1591,56 +1612,53 @@
       <c r="F11" s="50" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="G11" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" ht="27" customHeight="1">
       <c r="A12" s="50">
-        <v>999993</v>
+        <v>999991</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="50">
-        <v>0.1</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>49</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" ht="27" customHeight="1">
       <c r="A13" s="50">
-        <v>999994</v>
+        <v>999992</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="50">
-        <v>0.12</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="50">
-        <v>999995</v>
+        <v>999993</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>56</v>
@@ -1658,18 +1676,18 @@
         <v>59</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="50">
-        <v>999996</v>
+        <v>999994</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="50">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>61</v>
@@ -1681,12 +1699,12 @@
         <v>63</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="50">
-        <v>999997</v>
+        <v>999995</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>64</v>
@@ -1698,63 +1716,107 @@
         <v>65</v>
       </c>
       <c r="E16" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="G16" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="50">
+        <v>999996</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>67</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="50">
-        <v>999998</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>68</v>
       </c>
       <c r="C17" s="50">
         <v>0.1</v>
       </c>
       <c r="D17" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="F17" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="50" t="s">
-        <v>71</v>
-      </c>
       <c r="G17" s="50" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="50">
+        <v>999997</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="50">
+        <v>999998</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="50">
         <v>999999</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="50">
+      <c r="B20" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="50">
         <v>0.14</v>
       </c>
-      <c r="D18" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1"/>
-    <row r="32" ht="15" customHeight="1"/>
+      <c r="D20" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="33" ht="15" customHeight="1"/>
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
@@ -1764,8 +1826,8 @@
     <row r="39" ht="15" customHeight="1"/>
     <row r="40" ht="15" customHeight="1"/>
     <row r="41" ht="15" customHeight="1"/>
-    <row r="73" ht="12" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
+    <row r="42" ht="15" customHeight="1"/>
+    <row r="43" ht="15" customHeight="1"/>
     <row r="75" ht="12" customHeight="1"/>
     <row r="76" ht="12" customHeight="1"/>
     <row r="77" ht="12" customHeight="1"/>
@@ -1773,6 +1835,8 @@
     <row r="79" ht="12" customHeight="1"/>
     <row r="80" ht="12" customHeight="1"/>
     <row r="81" ht="12" customHeight="1"/>
+    <row r="82" ht="12" customHeight="1"/>
+    <row r="83" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:R88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -140,16 +140,49 @@
     <t>1.5;0,-200</t>
   </si>
   <si>
+    <t>Creature/Other/Fulan/Fulan_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Creature/Other/Fulan/Fulan_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;5,-90</t>
+  </si>
+  <si>
+    <t>0.18;20,-200</t>
+  </si>
+  <si>
+    <t>Creature/Other/Gelinsipan/Gelinsipan_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>Creature/Other/Gelinsipan/Gelinsipan_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.2;20,-120</t>
+  </si>
+  <si>
+    <t>Creature/Other/Panduola/Panduola_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.3;0,-110</t>
+  </si>
+  <si>
+    <t>0.8;0,-250</t>
+  </si>
+  <si>
     <t>Creature/Other/Feizhalixiu/Feizhalixiu_SkeletonData.asset</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>Creature/Other/Feizhalixiu/Feizhalixiu_Avator_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>0.18;5,-90</t>
   </si>
   <si>
     <t>0.12;0,-250</t>
@@ -1367,12 +1400,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B22" sqref="B22"/>
+      <selection pane="topRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1575,7 +1608,7 @@
     </row>
     <row r="10" ht="27" customHeight="1">
       <c r="A10" s="50">
-        <v>999989</v>
+        <v>999986</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>37</v>
@@ -1595,7 +1628,7 @@
     </row>
     <row r="11" ht="27" customHeight="1">
       <c r="A11" s="50">
-        <v>999990</v>
+        <v>999987</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>42</v>
@@ -1607,87 +1640,81 @@
         <v>44</v>
       </c>
       <c r="E11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="50" t="s">
         <v>45</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1">
       <c r="A12" s="50">
-        <v>999991</v>
+        <v>999988</v>
       </c>
       <c r="B12" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="F12" s="50" t="s">
         <v>49</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1">
       <c r="A13" s="50">
-        <v>999992</v>
+        <v>999989</v>
       </c>
       <c r="B13" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" ht="27" customHeight="1">
+      <c r="A14" s="50">
+        <v>999990</v>
+      </c>
+      <c r="B14" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="C14" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="D14" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="50">
-        <v>999993</v>
-      </c>
-      <c r="B14" s="50" t="s">
+      <c r="E14" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="50" t="s">
+      <c r="F14" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="G14" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="50" t="s">
+    </row>
+    <row r="15" ht="27" customHeight="1">
+      <c r="A15" s="50">
+        <v>999991</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="50">
-        <v>999994</v>
-      </c>
-      <c r="B15" s="50" t="s">
+      <c r="C15" s="50" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="50">
-        <v>0.12</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>61</v>
@@ -1698,36 +1725,30 @@
       <c r="F15" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" ht="27" customHeight="1">
       <c r="A16" s="50">
-        <v>999995</v>
+        <v>999992</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="50">
-        <v>0.1</v>
+      <c r="C16" s="50" t="s">
+        <v>54</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="50">
-        <v>999996</v>
+        <v>999993</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>67</v>
@@ -1745,18 +1766,18 @@
         <v>70</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="50">
-        <v>999997</v>
+        <v>999994</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="50">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>72</v>
@@ -1768,12 +1789,12 @@
         <v>74</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="50">
-        <v>999998</v>
+        <v>999995</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>75</v>
@@ -1785,41 +1806,107 @@
         <v>76</v>
       </c>
       <c r="E19" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>78</v>
-      </c>
       <c r="G19" s="50" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="50">
+        <v>999996</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="50">
+        <v>999997</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="50">
+        <v>999998</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="50">
         <v>999999</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="50">
+      <c r="B23" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="50">
         <v>0.14</v>
       </c>
-      <c r="D20" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1"/>
-    <row r="34" ht="15" customHeight="1"/>
-    <row r="35" ht="15" customHeight="1"/>
+      <c r="D23" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="36" ht="15" customHeight="1"/>
     <row r="37" ht="15" customHeight="1"/>
     <row r="38" ht="15" customHeight="1"/>
@@ -1828,15 +1915,18 @@
     <row r="41" ht="15" customHeight="1"/>
     <row r="42" ht="15" customHeight="1"/>
     <row r="43" ht="15" customHeight="1"/>
-    <row r="75" ht="12" customHeight="1"/>
-    <row r="76" ht="12" customHeight="1"/>
-    <row r="77" ht="12" customHeight="1"/>
+    <row r="44" ht="15" customHeight="1"/>
+    <row r="45" ht="15" customHeight="1"/>
+    <row r="46" ht="15" customHeight="1"/>
     <row r="78" ht="12" customHeight="1"/>
     <row r="79" ht="12" customHeight="1"/>
     <row r="80" ht="12" customHeight="1"/>
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
     <row r="83" ht="12" customHeight="1"/>
+    <row r="84" ht="12" customHeight="1"/>
+    <row r="85" ht="12" customHeight="1"/>
+    <row r="86" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:R88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -107,7 +107,7 @@
     <t>人类</t>
   </si>
   <si>
-    <t>Creature/Other/Aoliweiya_ChongChong/Aoliweiya_ChongChong_SkeletonData.asset</t>
+    <t>Mod/Aoliweiya_ChongChong/Aoliweiya_ChongChong_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.18;5,-80</t>
@@ -119,7 +119,7 @@
     <t>测试</t>
   </si>
   <si>
-    <t>Creature/Other/Alice_Q/Alice_2_Q_SkeletonData.asset</t>
+    <t>Mod/Alice_Q/Alice_2_Q_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.5;0,-60</t>
@@ -128,10 +128,10 @@
     <t>1.5;0,-180</t>
   </si>
   <si>
-    <t>Creature/Other/Alice_Q/Alice_Q_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Creature/Other/Taobaibai_Q/Baitaotao_Q_SkeletonData.asset</t>
+    <t>Mod/Alice_Q/Alice_Q_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Taobaibai_Q/Baitaotao_Q_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.5;0,-80</t>
@@ -140,13 +140,37 @@
     <t>1.5;0,-200</t>
   </si>
   <si>
-    <t>Creature/Other/Fulan/Fulan_SkeletonData.asset</t>
+    <t>Mod/Geliya/Geliya_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.1</t>
   </si>
   <si>
-    <t>Creature/Other/Fulan/Fulan_Avator_SkeletonData.asset</t>
+    <t>Mod/Geliya/Geliya_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;10,-80</t>
+  </si>
+  <si>
+    <t>0.18;20,-80</t>
+  </si>
+  <si>
+    <t>Mod/Youmingyu/Youmingyu_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.25;5,-80</t>
+  </si>
+  <si>
+    <t>0.8;20,-250</t>
+  </si>
+  <si>
+    <t>Mod/Fulan/Fulan_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Fulan/Fulan_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.18;5,-90</t>
@@ -155,22 +179,19 @@
     <t>0.18;20,-200</t>
   </si>
   <si>
-    <t>Creature/Other/Gelinsipan/Gelinsipan_SkeletonData.asset</t>
+    <t>Mod/Gelinsipan/Gelinsipan_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.09</t>
   </si>
   <si>
-    <t>Creature/Other/Gelinsipan/Gelinsipan_Avator_SkeletonData.asset</t>
+    <t>Mod/Gelinsipan/Gelinsipan_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;20,-120</t>
   </si>
   <si>
-    <t>Creature/Other/Panduola/Panduola_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>0.14</t>
+    <t>Mod/Panduola/Panduola_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.3;0,-110</t>
@@ -179,22 +200,22 @@
     <t>0.8;0,-250</t>
   </si>
   <si>
-    <t>Creature/Other/Feizhalixiu/Feizhalixiu_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Creature/Other/Feizhalixiu/Feizhalixiu_Avator_SkeletonData.asset</t>
+    <t>Mod/Feizhalixiu/Feizhalixiu_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Feizhalixiu/Feizhalixiu_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.12;0,-250</t>
   </si>
   <si>
-    <t>Creature/Other/Eris/Eris_SkeletonData.asset</t>
+    <t>Mod/Eris/Eris_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.11</t>
   </si>
   <si>
-    <t>Creature/Other/Eris/Eris_Avator_SkeletonData.asset</t>
+    <t>Mod/Eris/Eris_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;5,-80</t>
@@ -206,13 +227,13 @@
     <t>Test2</t>
   </si>
   <si>
-    <t>Creature/Other/Emma/Emma_SkeletonData.asset</t>
+    <t>Mod/Emma/Emma_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.115</t>
   </si>
   <si>
-    <t>Creature/Other/Emma/Emma_Avator_SkeletonData.asset</t>
+    <t>Mod/Emma/Emma_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.22;5,-90</t>
@@ -221,19 +242,19 @@
     <t>0.115;0,-235</t>
   </si>
   <si>
-    <t>Creature/Other/Eleamor/Eleamor_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Creature/Other/Eleamor/Eleamor_Avator_SkeletonData.asset</t>
+    <t>Mod/Eleamor/Eleamor_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Eleamor/Eleamor_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;5,-85</t>
   </si>
   <si>
-    <t>Creature/Other/Bunny/Bunny_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Creature/Other/Bunny/Bunny_Avator_SkeletonData.asset</t>
+    <t>Mod/Bunny/Bunny_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Bunny/Bunny_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;5,-100</t>
@@ -242,10 +263,10 @@
     <t>0.15;0,-300</t>
   </si>
   <si>
-    <t>Creature/Other/Kaola/Kaola_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Creature/Other/Kaola/Kaola_Avator_SkeletonData.asset</t>
+    <t>Mod/Kaola/Kaola_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Kaola/Kaola_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;5,-60</t>
@@ -254,19 +275,19 @@
     <t>0.15;0,-280</t>
   </si>
   <si>
-    <t>Creature/Other/Bandelu/Bandelu_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Creature/Other/Bandelu/Bandelu_Avator_SkeletonData.asset</t>
+    <t>Mod/Bandelu/Bandelu_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Bandelu/Bandelu_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.16;0,-220</t>
   </si>
   <si>
-    <t>Creature/Other/Asitelinna/Asitelinna_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Creature/Other/Asitelinna/Asitelinna_Avator_SkeletonData.asset</t>
+    <t>Mod/Asitelinna/Asitelinna_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Asitelinna/Asitelinna_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.18;0,-80</t>
@@ -275,10 +296,10 @@
     <t>0.12;0,20</t>
   </si>
   <si>
-    <t>Creature/Other/Amelia/Amelia_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Creature/Other/Amelia/Amelia_Avator_SkeletonData.asset</t>
+    <t>Mod/Amelia/Amelia_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Amelia/Amelia_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.18;0,-70</t>
@@ -287,10 +308,10 @@
     <t>0.12;0,-260</t>
   </si>
   <si>
-    <t>Creature/Other/Aoliweiya/Aoliweiya_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Creature/Other/Aoliweiya/Aoliweiya_Avator_SkeletonData.asset</t>
+    <t>Mod/Aoliweiya/Aoliweiya_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Aoliweiya/Aoliweiya_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.16;0,-70</t>
@@ -299,10 +320,10 @@
     <t>0.15;0,-30</t>
   </si>
   <si>
-    <t>Creature/Other/Dunniang/Dunniang_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Creature/Other/Dunniang/Dunniang_Avator_SkeletonData.asset</t>
+    <t>Mod/Dunniang/Dunniang_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Dunniang/Dunniang_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.25;0,-80</t>
@@ -1400,7 +1421,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1608,7 +1629,7 @@
     </row>
     <row r="10" ht="27" customHeight="1">
       <c r="A10" s="50">
-        <v>999986</v>
+        <v>999984</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>37</v>
@@ -1628,7 +1649,7 @@
     </row>
     <row r="11" ht="27" customHeight="1">
       <c r="A11" s="50">
-        <v>999987</v>
+        <v>999985</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>42</v>
@@ -1636,11 +1657,8 @@
       <c r="C11" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="E11" s="50" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>40</v>
       </c>
       <c r="F11" s="50" t="s">
         <v>45</v>
@@ -1648,12 +1666,15 @@
     </row>
     <row r="12" ht="27" customHeight="1">
       <c r="A12" s="50">
-        <v>999988</v>
+        <v>999986</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="50" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="50" t="s">
@@ -1665,96 +1686,93 @@
     </row>
     <row r="13" ht="27" customHeight="1">
       <c r="A13" s="50">
-        <v>999989</v>
+        <v>999987</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1">
       <c r="A14" s="50">
-        <v>999990</v>
+        <v>999988</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="F14" s="50" t="s">
         <v>56</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1">
       <c r="A15" s="50">
-        <v>999991</v>
+        <v>999989</v>
       </c>
       <c r="B15" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="50" t="s">
         <v>59</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1">
       <c r="A16" s="50">
-        <v>999992</v>
+        <v>999990</v>
       </c>
       <c r="B16" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="50" t="s">
+      <c r="G16" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="50" t="s">
+    </row>
+    <row r="17" ht="27" customHeight="1">
+      <c r="A17" s="50">
+        <v>999991</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="50">
-        <v>999993</v>
-      </c>
-      <c r="B17" s="50" t="s">
+      <c r="C17" s="50" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="50">
-        <v>0.1</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>68</v>
@@ -1765,19 +1783,16 @@
       <c r="F17" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" ht="27" customHeight="1">
       <c r="A18" s="50">
-        <v>999994</v>
+        <v>999992</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="50">
-        <v>0.12</v>
+      <c r="C18" s="50" t="s">
+        <v>61</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>72</v>
@@ -1786,44 +1801,41 @@
         <v>73</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="50">
-        <v>999995</v>
+        <v>999993</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="50">
         <v>0.1</v>
       </c>
       <c r="D19" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>76</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>40</v>
       </c>
       <c r="F19" s="50" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="50">
-        <v>999996</v>
+        <v>999994</v>
       </c>
       <c r="B20" s="50" t="s">
         <v>78</v>
       </c>
       <c r="C20" s="50">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D20" s="50" t="s">
         <v>79</v>
@@ -1835,12 +1847,12 @@
         <v>81</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="50">
-        <v>999997</v>
+        <v>999995</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>82</v>
@@ -1852,63 +1864,107 @@
         <v>83</v>
       </c>
       <c r="E21" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="G21" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="50">
+        <v>999996</v>
+      </c>
+      <c r="B22" s="50" t="s">
         <v>85</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="50">
-        <v>999998</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>86</v>
       </c>
       <c r="C22" s="50">
         <v>0.1</v>
       </c>
       <c r="D22" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="F22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>89</v>
-      </c>
       <c r="G22" s="50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="50">
+        <v>999997</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" s="50">
+        <v>999998</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="50">
         <v>999999</v>
       </c>
-      <c r="B23" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="50">
+      <c r="B25" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="50">
         <v>0.14</v>
       </c>
-      <c r="D23" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1"/>
-    <row r="37" ht="15" customHeight="1"/>
+      <c r="D25" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="38" ht="15" customHeight="1"/>
     <row r="39" ht="15" customHeight="1"/>
     <row r="40" ht="15" customHeight="1"/>
@@ -1918,8 +1974,8 @@
     <row r="44" ht="15" customHeight="1"/>
     <row r="45" ht="15" customHeight="1"/>
     <row r="46" ht="15" customHeight="1"/>
-    <row r="78" ht="12" customHeight="1"/>
-    <row r="79" ht="12" customHeight="1"/>
+    <row r="47" ht="15" customHeight="1"/>
+    <row r="48" ht="15" customHeight="1"/>
     <row r="80" ht="12" customHeight="1"/>
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
@@ -1927,6 +1983,8 @@
     <row r="84" ht="12" customHeight="1"/>
     <row r="85" ht="12" customHeight="1"/>
     <row r="86" ht="12" customHeight="1"/>
+    <row r="87" ht="12" customHeight="1"/>
+    <row r="88" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:R88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -140,12 +140,126 @@
     <t>1.5;0,-200</t>
   </si>
   <si>
+    <t>Mod/Guanxingzhe/Guanxingzhe_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.25;0,-80</t>
+  </si>
+  <si>
+    <t>0.8;20,-260</t>
+  </si>
+  <si>
+    <t>Mod/Hekatiya/Hekatiya_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Mod/Hekatiya/Hekatiya_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;0,-67</t>
+  </si>
+  <si>
+    <t>0.18;20,-350</t>
+  </si>
+  <si>
+    <t>Mod/Hinagiku/Hinagiku_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Hinagiku/Hinagiku_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;10,-67</t>
+  </si>
+  <si>
+    <t>Mod/Kuluoxier/Kuluoxier_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Kuluoxier/Kuluoxier_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.16;0,-67</t>
+  </si>
+  <si>
+    <t>0.2;0,-20</t>
+  </si>
+  <si>
+    <t>Mod/Kuluoxierback/Kuluoxierback_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;0,-80</t>
+  </si>
+  <si>
+    <t>0.5;0,-260</t>
+  </si>
+  <si>
+    <t>Mod/Kutakati/Kutakati_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Kutakati/Kutakati_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;5,-67</t>
+  </si>
+  <si>
+    <t>0.18;0,-100</t>
+  </si>
+  <si>
+    <t>Mod/Leiya/Leiya_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Leiya/Leiya_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.2;20,0</t>
+  </si>
+  <si>
+    <t>Mod/Luna/Luna_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Luna/Luna_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.15;20,-320</t>
+  </si>
+  <si>
+    <t>Mod/Sister/Sister_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.2;0,-67</t>
+  </si>
+  <si>
+    <t>0.7;0,-267</t>
+  </si>
+  <si>
+    <t>Mod/Heitamoning/Heitamoning_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Heitamoning/Heitamoning_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;20,-260</t>
+  </si>
+  <si>
+    <t>Mod/Mubeiling/Mubeiling_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.23;0,-80</t>
+  </si>
+  <si>
+    <t>0.7;0,-230</t>
+  </si>
+  <si>
     <t>Mod/Geliya/Geliya_SkeletonData.asset</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>Mod/Geliya/Geliya_Avator_SkeletonData.asset</t>
   </si>
   <si>
@@ -290,9 +404,6 @@
     <t>Mod/Asitelinna/Asitelinna_Avator_SkeletonData.asset</t>
   </si>
   <si>
-    <t>0.18;0,-80</t>
-  </si>
-  <si>
     <t>0.12;0,20</t>
   </si>
   <si>
@@ -324,9 +435,6 @@
   </si>
   <si>
     <t>Mod/Dunniang/Dunniang_Avator_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>0.25;0,-80</t>
   </si>
   <si>
     <t>0.3;0,-230</t>
@@ -1421,12 +1529,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D27" sqref="D27"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1629,7 +1737,7 @@
     </row>
     <row r="10" ht="27" customHeight="1">
       <c r="A10" s="50">
-        <v>999984</v>
+        <v>999973</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>37</v>
@@ -1637,24 +1745,24 @@
       <c r="C10" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="E10" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="F10" s="50" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1">
       <c r="A11" s="50">
-        <v>999985</v>
+        <v>999974</v>
       </c>
       <c r="B11" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="D11" s="50" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="50" t="s">
@@ -1666,13 +1774,13 @@
     </row>
     <row r="12" ht="27" customHeight="1">
       <c r="A12" s="50">
-        <v>999986</v>
+        <v>999975</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" s="50" t="s">
         <v>47</v>
@@ -1681,61 +1789,61 @@
         <v>48</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1">
       <c r="A13" s="50">
-        <v>999987</v>
+        <v>999976</v>
       </c>
       <c r="B13" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="E13" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="F13" s="50" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1">
       <c r="A14" s="50">
-        <v>999988</v>
+        <v>999977</v>
       </c>
       <c r="B14" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="50" t="s">
+      <c r="F14" s="50" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1">
       <c r="A15" s="50">
-        <v>999989</v>
+        <v>999978</v>
       </c>
       <c r="B15" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="50" t="s">
+      <c r="E15" s="50" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>48</v>
       </c>
       <c r="F15" s="50" t="s">
         <v>59</v>
@@ -1743,248 +1851,456 @@
     </row>
     <row r="16" ht="27" customHeight="1">
       <c r="A16" s="50">
-        <v>999990</v>
+        <v>999979</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="E16" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="50" t="s">
         <v>62</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1">
       <c r="A17" s="50">
-        <v>999991</v>
+        <v>999980</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1">
       <c r="A18" s="50">
+        <v>999981</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" ht="27" customHeight="1">
+      <c r="A19" s="50">
+        <v>999982</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" ht="27" customHeight="1">
+      <c r="A20" s="50">
+        <v>999983</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" ht="27" customHeight="1">
+      <c r="A21" s="50">
+        <v>999984</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1">
+      <c r="A22" s="50">
+        <v>999985</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" ht="27" customHeight="1">
+      <c r="A23" s="50">
+        <v>999986</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1">
+      <c r="A24" s="50">
+        <v>999987</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1">
+      <c r="A25" s="50">
+        <v>999988</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1">
+      <c r="A26" s="50">
+        <v>999989</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1">
+      <c r="A27" s="50">
+        <v>999990</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1">
+      <c r="A28" s="50">
+        <v>999991</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" ht="27" customHeight="1">
+      <c r="A29" s="50">
         <v>999992</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="50">
+      <c r="B29" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="50">
         <v>999993</v>
       </c>
-      <c r="B19" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="50">
+      <c r="B30" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="50">
         <v>0.1</v>
       </c>
-      <c r="D19" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="50">
+      <c r="D30" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="50">
         <v>999994</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="50">
+      <c r="B31" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="50">
         <v>0.12</v>
       </c>
-      <c r="D20" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="50">
+      <c r="D31" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="50">
         <v>999995</v>
       </c>
-      <c r="B21" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="50">
+      <c r="B32" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="50">
         <v>0.1</v>
       </c>
-      <c r="D21" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="50">
+      <c r="D32" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="50">
         <v>999996</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="50">
+      <c r="B33" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="50">
         <v>0.1</v>
       </c>
-      <c r="D22" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="50">
+      <c r="D33" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="50">
         <v>999997</v>
       </c>
-      <c r="B23" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="50">
+      <c r="B34" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="50">
         <v>0.1</v>
       </c>
-      <c r="D23" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="50">
+      <c r="D34" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="50">
         <v>999998</v>
       </c>
-      <c r="B24" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="50">
+      <c r="B35" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="50">
         <v>0.1</v>
       </c>
-      <c r="D24" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="50">
+      <c r="D35" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="50">
         <v>999999</v>
       </c>
-      <c r="B25" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="50">
+      <c r="B36" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="50">
         <v>0.14</v>
       </c>
-      <c r="D25" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1"/>
-    <row r="39" ht="15" customHeight="1"/>
-    <row r="40" ht="15" customHeight="1"/>
-    <row r="41" ht="15" customHeight="1"/>
-    <row r="42" ht="15" customHeight="1"/>
-    <row r="43" ht="15" customHeight="1"/>
-    <row r="44" ht="15" customHeight="1"/>
-    <row r="45" ht="15" customHeight="1"/>
-    <row r="46" ht="15" customHeight="1"/>
-    <row r="47" ht="15" customHeight="1"/>
-    <row r="48" ht="15" customHeight="1"/>
-    <row r="80" ht="12" customHeight="1"/>
-    <row r="81" ht="12" customHeight="1"/>
-    <row r="82" ht="12" customHeight="1"/>
-    <row r="83" ht="12" customHeight="1"/>
-    <row r="84" ht="12" customHeight="1"/>
-    <row r="85" ht="12" customHeight="1"/>
-    <row r="86" ht="12" customHeight="1"/>
-    <row r="87" ht="12" customHeight="1"/>
-    <row r="88" ht="12" customHeight="1"/>
+      <c r="D36" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1"/>
+    <row r="50" ht="15" customHeight="1"/>
+    <row r="51" ht="15" customHeight="1"/>
+    <row r="52" ht="15" customHeight="1"/>
+    <row r="53" ht="15" customHeight="1"/>
+    <row r="54" ht="15" customHeight="1"/>
+    <row r="55" ht="15" customHeight="1"/>
+    <row r="56" ht="15" customHeight="1"/>
+    <row r="57" ht="15" customHeight="1"/>
+    <row r="58" ht="15" customHeight="1"/>
+    <row r="59" ht="15" customHeight="1"/>
+    <row r="91" ht="12" customHeight="1"/>
+    <row r="92" ht="12" customHeight="1"/>
+    <row r="93" ht="12" customHeight="1"/>
+    <row r="94" ht="12" customHeight="1"/>
+    <row r="95" ht="12" customHeight="1"/>
+    <row r="96" ht="12" customHeight="1"/>
+    <row r="97" ht="12" customHeight="1"/>
+    <row r="98" ht="12" customHeight="1"/>
+    <row r="99" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:R88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>id</t>
   </si>
@@ -140,6 +140,102 @@
     <t>1.5;0,-200</t>
   </si>
   <si>
+    <t>Mod/Lena/Lena_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>Mod/Lena/Lena_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;0,-55</t>
+  </si>
+  <si>
+    <t>0.15;0,-320</t>
+  </si>
+  <si>
+    <t>Mod/Liselotte/Liselotte_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>Mod/Liselotte/Liselotte_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;0,-67</t>
+  </si>
+  <si>
+    <t>0.16;0,-360</t>
+  </si>
+  <si>
+    <t>Mod/Luca/Luca_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Luca/Luca_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Luna_2/Luna_2_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Luna_2/Luna_2_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.14;10,-285</t>
+  </si>
+  <si>
+    <t>Mod/Luoluo/Luoluo_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>Mod/Luoluo/Luoluo_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.2;0,-50</t>
+  </si>
+  <si>
+    <t>0.13;20,0</t>
+  </si>
+  <si>
+    <t>Mod/Matoi/Matoi_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Matoi/Matoi_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Meltina/Meltina_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Meltina/Meltina_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;0,-70</t>
+  </si>
+  <si>
+    <t>0.14;20,-310</t>
+  </si>
+  <si>
+    <t>Mod/Mia/Mia_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Mia/Mia_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.15;20,-320</t>
+  </si>
+  <si>
+    <t>Mod/Misha/Misha_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Misha/Misha_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.16;0,-320</t>
+  </si>
+  <si>
     <t>Mod/Guanxingzhe/Guanxingzhe_SkeletonData.asset</t>
   </si>
   <si>
@@ -161,9 +257,6 @@
     <t>Mod/Hekatiya/Hekatiya_Avator_SkeletonData.asset</t>
   </si>
   <si>
-    <t>0.18;0,-67</t>
-  </si>
-  <si>
     <t>0.18;20,-350</t>
   </si>
   <si>
@@ -224,9 +317,6 @@
     <t>Mod/Luna/Luna_Avator_SkeletonData.asset</t>
   </si>
   <si>
-    <t>0.15;20,-320</t>
-  </si>
-  <si>
     <t>Mod/Sister/Sister_SkeletonData.asset</t>
   </si>
   <si>
@@ -248,9 +338,6 @@
     <t>Mod/Mubeiling/Mubeiling_SkeletonData.asset</t>
   </si>
   <si>
-    <t>0.12</t>
-  </si>
-  <si>
     <t>0.23;0,-80</t>
   </si>
   <si>
@@ -326,9 +413,6 @@
     <t>Mod/Eris/Eris_SkeletonData.asset</t>
   </si>
   <si>
-    <t>0.11</t>
-  </si>
-  <si>
     <t>Mod/Eris/Eris_Avator_SkeletonData.asset</t>
   </si>
   <si>
@@ -411,9 +495,6 @@
   </si>
   <si>
     <t>Mod/Amelia/Amelia_Avator_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>0.18;0,-70</t>
   </si>
   <si>
     <t>0.12;0,-260</t>
@@ -1529,12 +1610,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+      <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1737,7 +1818,7 @@
     </row>
     <row r="10" ht="27" customHeight="1">
       <c r="A10" s="50">
-        <v>999973</v>
+        <v>999964</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>37</v>
@@ -1745,125 +1826,131 @@
       <c r="C10" s="50" t="s">
         <v>38</v>
       </c>
+      <c r="D10" s="50" t="s">
+        <v>39</v>
+      </c>
       <c r="E10" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1">
       <c r="A11" s="50">
-        <v>999974</v>
+        <v>999965</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1">
       <c r="A12" s="50">
-        <v>999975</v>
+        <v>999966</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1">
       <c r="A13" s="50">
-        <v>999976</v>
+        <v>999967</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="50" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>51</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1">
       <c r="A14" s="50">
-        <v>999977</v>
+        <v>999968</v>
       </c>
       <c r="B14" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>42</v>
+      <c r="D14" s="50" t="s">
+        <v>54</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1">
       <c r="A15" s="50">
-        <v>999978</v>
+        <v>999969</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1">
       <c r="A16" s="50">
-        <v>999979</v>
+        <v>999970</v>
       </c>
       <c r="B16" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="50" t="s">
+      <c r="E16" s="50" t="s">
         <v>61</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>58</v>
       </c>
       <c r="F16" s="50" t="s">
         <v>62</v>
@@ -1871,19 +1958,19 @@
     </row>
     <row r="17" ht="27" customHeight="1">
       <c r="A17" s="50">
-        <v>999980</v>
+        <v>999971</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="50" t="s">
         <v>65</v>
@@ -1891,16 +1978,19 @@
     </row>
     <row r="18" ht="27" customHeight="1">
       <c r="A18" s="50">
-        <v>999981</v>
+        <v>999972</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>67</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F18" s="50" t="s">
         <v>68</v>
@@ -1908,69 +1998,72 @@
     </row>
     <row r="19" ht="27" customHeight="1">
       <c r="A19" s="50">
-        <v>999982</v>
+        <v>999973</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="50" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1">
       <c r="A20" s="50">
-        <v>999983</v>
+        <v>999974</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>75</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1">
       <c r="A21" s="50">
-        <v>999984</v>
+        <v>999975</v>
       </c>
       <c r="B21" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="50" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1">
       <c r="A22" s="50">
-        <v>999985</v>
+        <v>999976</v>
       </c>
       <c r="B22" s="50" t="s">
         <v>80</v>
       </c>
       <c r="C22" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="50" t="s">
@@ -1982,325 +2075,493 @@
     </row>
     <row r="23" ht="27" customHeight="1">
       <c r="A23" s="50">
-        <v>999986</v>
+        <v>999977</v>
       </c>
       <c r="B23" s="50" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="F23" s="50" t="s">
         <v>86</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1">
       <c r="A24" s="50">
-        <v>999987</v>
+        <v>999978</v>
       </c>
       <c r="B24" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="E24" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="F24" s="50" t="s">
         <v>90</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1">
       <c r="A25" s="50">
-        <v>999988</v>
+        <v>999979</v>
       </c>
       <c r="B25" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="50" t="s">
-        <v>81</v>
-      </c>
       <c r="E25" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="50" t="s">
         <v>93</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" ht="27" customHeight="1">
       <c r="A26" s="50">
-        <v>999989</v>
+        <v>999980</v>
       </c>
       <c r="B26" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>96</v>
-      </c>
       <c r="E26" s="50" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1">
       <c r="A27" s="50">
-        <v>999990</v>
+        <v>999981</v>
       </c>
       <c r="B27" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="50" t="s">
         <v>98</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" ht="27" customHeight="1">
       <c r="A28" s="50">
-        <v>999991</v>
+        <v>999982</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" ht="27" customHeight="1">
       <c r="A29" s="50">
+        <v>999983</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" ht="27" customHeight="1">
+      <c r="A30" s="50">
+        <v>999984</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" ht="27" customHeight="1">
+      <c r="A31" s="50">
+        <v>999985</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" ht="27" customHeight="1">
+      <c r="A32" s="50">
+        <v>999986</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" ht="27" customHeight="1">
+      <c r="A33" s="50">
+        <v>999987</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" ht="27" customHeight="1">
+      <c r="A34" s="50">
+        <v>999988</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" ht="27" customHeight="1">
+      <c r="A35" s="50">
+        <v>999989</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" ht="27" customHeight="1">
+      <c r="A36" s="50">
+        <v>999990</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" ht="27" customHeight="1">
+      <c r="A37" s="50">
+        <v>999991</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" ht="27" customHeight="1">
+      <c r="A38" s="50">
         <v>999992</v>
       </c>
-      <c r="B29" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="50">
+      <c r="B38" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="50">
         <v>999993</v>
       </c>
-      <c r="B30" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="50">
+      <c r="B39" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="50">
         <v>0.1</v>
       </c>
-      <c r="D30" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="50" t="s">
+      <c r="D39" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="50">
+        <v>999994</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="50">
+        <v>999995</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="50">
-        <v>999994</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="50">
-        <v>0.12</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="50">
-        <v>999995</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="50">
+      <c r="F41" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="50">
+        <v>999996</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="50">
         <v>0.1</v>
       </c>
-      <c r="D32" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="50">
-        <v>999996</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="50">
+      <c r="D42" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="50">
+        <v>999997</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="50">
         <v>0.1</v>
       </c>
-      <c r="D33" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="G33" s="50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="50">
-        <v>999997</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="50">
+      <c r="D43" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" s="50">
+        <v>999998</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="50">
         <v>0.1</v>
       </c>
-      <c r="D34" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="50">
-        <v>999998</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D35" s="50" t="s">
+      <c r="D44" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="50">
+    </row>
+    <row r="45">
+      <c r="A45" s="50">
         <v>999999</v>
       </c>
-      <c r="B36" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="50">
+      <c r="B45" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="50">
         <v>0.14</v>
       </c>
-      <c r="D36" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" ht="15" customHeight="1"/>
-    <row r="50" ht="15" customHeight="1"/>
-    <row r="51" ht="15" customHeight="1"/>
-    <row r="52" ht="15" customHeight="1"/>
-    <row r="53" ht="15" customHeight="1"/>
-    <row r="54" ht="15" customHeight="1"/>
-    <row r="55" ht="15" customHeight="1"/>
-    <row r="56" ht="15" customHeight="1"/>
-    <row r="57" ht="15" customHeight="1"/>
+      <c r="D45" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="58" ht="15" customHeight="1"/>
     <row r="59" ht="15" customHeight="1"/>
-    <row r="91" ht="12" customHeight="1"/>
-    <row r="92" ht="12" customHeight="1"/>
-    <row r="93" ht="12" customHeight="1"/>
-    <row r="94" ht="12" customHeight="1"/>
-    <row r="95" ht="12" customHeight="1"/>
-    <row r="96" ht="12" customHeight="1"/>
-    <row r="97" ht="12" customHeight="1"/>
-    <row r="98" ht="12" customHeight="1"/>
-    <row r="99" ht="12" customHeight="1"/>
+    <row r="60" ht="15" customHeight="1"/>
+    <row r="61" ht="15" customHeight="1"/>
+    <row r="62" ht="15" customHeight="1"/>
+    <row r="63" ht="15" customHeight="1"/>
+    <row r="64" ht="15" customHeight="1"/>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="66" ht="15" customHeight="1"/>
+    <row r="67" ht="15" customHeight="1"/>
+    <row r="68" ht="15" customHeight="1"/>
+    <row r="100" ht="12" customHeight="1"/>
+    <row r="101" ht="12" customHeight="1"/>
+    <row r="102" ht="12" customHeight="1"/>
+    <row r="103" ht="12" customHeight="1"/>
+    <row r="104" ht="12" customHeight="1"/>
+    <row r="105" ht="12" customHeight="1"/>
+    <row r="106" ht="12" customHeight="1"/>
+    <row r="107" ht="12" customHeight="1"/>
+    <row r="108" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:R88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="201">
   <si>
     <t>id</t>
   </si>
@@ -107,7 +107,7 @@
     <t>人类</t>
   </si>
   <si>
-    <t>Mod/Aoliweiya_ChongChong/Aoliweiya_ChongChong_SkeletonData.asset</t>
+    <t>Mod/Other_2/Aoliweiya_ChongChong/Aoliweiya_ChongChong_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.18;5,-80</t>
@@ -119,7 +119,7 @@
     <t>测试</t>
   </si>
   <si>
-    <t>Mod/Alice_Q/Alice_2_Q_SkeletonData.asset</t>
+    <t>Mod/Other_2/Alice_Q/Alice_2_Q_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.5;0,-60</t>
@@ -128,10 +128,10 @@
     <t>1.5;0,-180</t>
   </si>
   <si>
-    <t>Mod/Alice_Q/Alice_Q_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Taobaibai_Q/Baitaotao_Q_SkeletonData.asset</t>
+    <t>Mod/Other_2/Alice_Q/Alice_Q_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_2/Taobaibai_Q/Baitaotao_Q_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.5;0,-80</t>
@@ -140,13 +140,142 @@
     <t>1.5;0,-200</t>
   </si>
   <si>
-    <t>Mod/Lena/Lena_SkeletonData.asset</t>
+    <t>Mod/Other_1/Baolilong/Baolilong_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.12</t>
   </si>
   <si>
-    <t>Mod/Lena/Lena_Avator_SkeletonData.asset</t>
+    <t>0.2;0,-60</t>
+  </si>
+  <si>
+    <t>0.6;0,-180</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Fusan/Fusan_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.2;0,-55</t>
+  </si>
+  <si>
+    <t>0.7;-30,-200</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Heishanyang/Heishanyang_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Heishanyang/Heshanyang_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.15;20,-50</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Molasuna/Molasuna_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Molasuna/Molasuna_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;5,-70</t>
+  </si>
+  <si>
+    <t>0.15;0,-270</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Nefer/Nefer_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Nefer/Nefer_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;0,-70</t>
+  </si>
+  <si>
+    <t>0.14;0,-330</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Nidiya/Nidiya_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Nidiya/Nidiya_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.15;0,-20</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Reika/Reika_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Reika/Reika_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.13;0,-320</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Renyu/Renyu_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.3;0,-100</t>
+  </si>
+  <si>
+    <t>0.6;0,-200</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Rose/Rosa_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Rose/Rosa_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.13;0,-300</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Safeierde/Safeierde_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Safeierde/Safeierde_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Saila/Saila_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Saila/Saila_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.18;0,-80</t>
+  </si>
+  <si>
+    <t>0.12;0,-50</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Sarah/Sarah_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Sarah/Sarah_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.13;0,-280</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Lena/Lena_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Lena/Lena_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.18;0,-55</t>
@@ -155,13 +284,10 @@
     <t>0.15;0,-320</t>
   </si>
   <si>
-    <t>Mod/Liselotte/Liselotte_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>Mod/Liselotte/Liselotte_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Liselotte/Liselotte_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Liselotte/Liselotte_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.18;0,-67</t>
@@ -170,28 +296,28 @@
     <t>0.16;0,-360</t>
   </si>
   <si>
-    <t>Mod/Luca/Luca_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Luca/Luca_Avator_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Luna_2/Luna_2_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Luna_2/Luna_2_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Luca/Luca_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Luca/Luca_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Luna_2/Luna_2_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Luna_2/Luna_2_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.14;10,-285</t>
   </si>
   <si>
-    <t>Mod/Luoluo/Luoluo_SkeletonData.asset</t>
+    <t>Mod/Other_1/Luoluo/Luoluo_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.15</t>
   </si>
   <si>
-    <t>Mod/Luoluo/Luoluo_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Luoluo/Luoluo_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;0,-50</t>
@@ -200,46 +326,40 @@
     <t>0.13;20,0</t>
   </si>
   <si>
-    <t>Mod/Matoi/Matoi_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Matoi/Matoi_Avator_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Meltina/Meltina_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Meltina/Meltina_Avator_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>0.18;0,-70</t>
+    <t>Mod/Other_1/Matoi/Matoi_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Matoi/Matoi_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Meltina/Meltina_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Meltina/Meltina_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.14;20,-310</t>
   </si>
   <si>
-    <t>Mod/Mia/Mia_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Mia/Mia_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Mia/Mia_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Mia/Mia_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.15;20,-320</t>
   </si>
   <si>
-    <t>Mod/Misha/Misha_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Misha/Misha_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Misha/Misha_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Misha/Misha_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.16;0,-320</t>
   </si>
   <si>
-    <t>Mod/Guanxingzhe/Guanxingzhe_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>0.13</t>
+    <t>Mod/Other_1/Guanxingzhe/Guanxingzhe_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.25;0,-80</t>
@@ -248,31 +368,28 @@
     <t>0.8;20,-260</t>
   </si>
   <si>
-    <t>Mod/Hekatiya/Hekatiya_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>Mod/Hekatiya/Hekatiya_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Hekatiya/Hekatiya_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Hekatiya/Hekatiya_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.18;20,-350</t>
   </si>
   <si>
-    <t>Mod/Hinagiku/Hinagiku_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Hinagiku/Hinagiku_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Hinagiku/Hinagiku_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Hinagiku/Hinagiku_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.18;10,-67</t>
   </si>
   <si>
-    <t>Mod/Kuluoxier/Kuluoxier_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Kuluoxier/Kuluoxier_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Kuluoxier/Kuluoxier_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Kuluoxier/Kuluoxier_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.16;0,-67</t>
@@ -281,19 +398,16 @@
     <t>0.2;0,-20</t>
   </si>
   <si>
-    <t>Mod/Kuluoxierback/Kuluoxierback_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>0.18;0,-80</t>
+    <t>Mod/Other_1/Kuluoxierback/Kuluoxierback_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.5;0,-260</t>
   </si>
   <si>
-    <t>Mod/Kutakati/Kutakati_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Kutakati/Kutakati_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Kutakati/Kutakati_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Kutakati/Kutakati_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.18;5,-67</t>
@@ -302,22 +416,22 @@
     <t>0.18;0,-100</t>
   </si>
   <si>
-    <t>Mod/Leiya/Leiya_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Leiya/Leiya_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Leiya/Leiya_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Leiya/Leiya_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;20,0</t>
   </si>
   <si>
-    <t>Mod/Luna/Luna_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Luna/Luna_Avator_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Sister/Sister_SkeletonData.asset</t>
+    <t>Mod/Other_1/Luna/Luna_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Luna/Luna_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Sister/Sister_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;0,-67</t>
@@ -326,16 +440,16 @@
     <t>0.7;0,-267</t>
   </si>
   <si>
-    <t>Mod/Heitamoning/Heitamoning_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Heitamoning/Heitamoning_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Heitamoning/Heitamoning_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Heitamoning/Heitamoning_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.18;20,-260</t>
   </si>
   <si>
-    <t>Mod/Mubeiling/Mubeiling_SkeletonData.asset</t>
+    <t>Mod/Other_1/Mubeiling/Mubeiling_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.23;0,-80</t>
@@ -344,10 +458,10 @@
     <t>0.7;0,-230</t>
   </si>
   <si>
-    <t>Mod/Geliya/Geliya_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Geliya/Geliya_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Geliya/Geliya_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Geliya/Geliya_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.18;10,-80</t>
@@ -356,10 +470,7 @@
     <t>0.18;20,-80</t>
   </si>
   <si>
-    <t>Mod/Youmingyu/Youmingyu_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>0.14</t>
+    <t>Mod/Other_1/Youmingyu/Youmingyu_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.25;5,-80</t>
@@ -368,10 +479,10 @@
     <t>0.8;20,-250</t>
   </si>
   <si>
-    <t>Mod/Fulan/Fulan_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Fulan/Fulan_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Fulan/Fulan_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Fulan/Fulan_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.18;5,-90</t>
@@ -380,19 +491,19 @@
     <t>0.18;20,-200</t>
   </si>
   <si>
-    <t>Mod/Gelinsipan/Gelinsipan_SkeletonData.asset</t>
+    <t>Mod/Other_1/Gelinsipan/Gelinsipan_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.09</t>
   </si>
   <si>
-    <t>Mod/Gelinsipan/Gelinsipan_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Gelinsipan/Gelinsipan_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;20,-120</t>
   </si>
   <si>
-    <t>Mod/Panduola/Panduola_SkeletonData.asset</t>
+    <t>Mod/Other_1/Panduola/Panduola_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.3;0,-110</t>
@@ -401,19 +512,19 @@
     <t>0.8;0,-250</t>
   </si>
   <si>
-    <t>Mod/Feizhalixiu/Feizhalixiu_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Feizhalixiu/Feizhalixiu_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Feizhalixiu/Feizhalixiu_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Feizhalixiu/Feizhalixiu_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.12;0,-250</t>
   </si>
   <si>
-    <t>Mod/Eris/Eris_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Eris/Eris_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Eris/Eris_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Eris/Eris_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;5,-80</t>
@@ -425,13 +536,13 @@
     <t>Test2</t>
   </si>
   <si>
-    <t>Mod/Emma/Emma_SkeletonData.asset</t>
+    <t>Mod/Other_1/Emma/Emma_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.115</t>
   </si>
   <si>
-    <t>Mod/Emma/Emma_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Emma/Emma_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.22;5,-90</t>
@@ -440,19 +551,19 @@
     <t>0.115;0,-235</t>
   </si>
   <si>
-    <t>Mod/Eleamor/Eleamor_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Eleamor/Eleamor_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Eleamor/Eleamor_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Eleamor/Eleamor_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;5,-85</t>
   </si>
   <si>
-    <t>Mod/Bunny/Bunny_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Bunny/Bunny_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Bunny/Bunny_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Bunny/Bunny_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;5,-100</t>
@@ -461,10 +572,10 @@
     <t>0.15;0,-300</t>
   </si>
   <si>
-    <t>Mod/Kaola/Kaola_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Kaola/Kaola_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Kaola/Kaola_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Kaola/Kaola_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.2;5,-60</t>
@@ -473,37 +584,37 @@
     <t>0.15;0,-280</t>
   </si>
   <si>
-    <t>Mod/Bandelu/Bandelu_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Bandelu/Bandelu_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Bandelu/Bandelu_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Bandelu/Bandelu_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.16;0,-220</t>
   </si>
   <si>
-    <t>Mod/Asitelinna/Asitelinna_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Asitelinna/Asitelinna_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Asitelinna/Asitelinna_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Asitelinna/Asitelinna_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.12;0,20</t>
   </si>
   <si>
-    <t>Mod/Amelia/Amelia_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Amelia/Amelia_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Amelia/Amelia_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Amelia/Amelia_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.12;0,-260</t>
   </si>
   <si>
-    <t>Mod/Aoliweiya/Aoliweiya_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Aoliweiya/Aoliweiya_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Aoliweiya/Aoliweiya_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Aoliweiya/Aoliweiya_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.16;0,-70</t>
@@ -512,10 +623,10 @@
     <t>0.15;0,-30</t>
   </si>
   <si>
-    <t>Mod/Dunniang/Dunniang_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>Mod/Dunniang/Dunniang_Avator_SkeletonData.asset</t>
+    <t>Mod/Other_1/Dunniang/Dunniang_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Dunniang/Dunniang_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.3;0,-230</t>
@@ -536,6 +647,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,6 +655,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,12 +663,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -563,6 +678,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,6 +686,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,6 +694,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,6 +702,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,12 +710,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,6 +725,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,6 +733,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -618,12 +741,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,30 +756,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1108,158 +1238,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1610,958 +1590,1189 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1" style="50"/>
-    <col min="2" max="2" width="84.125" customWidth="1" style="50"/>
-    <col min="3" max="6" width="62.625" customWidth="1" style="50"/>
-    <col min="7" max="7" width="42.875" customWidth="1" style="50"/>
-    <col min="8" max="8" width="25.125" customWidth="1" style="50"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="84.125" customWidth="1"/>
+    <col min="3" max="6" width="62.625" customWidth="1"/>
+    <col min="7" max="7" width="42.875" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="50">
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="50">
+    <row r="5" ht="15" customHeight="1" spans="1:7">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1">
-      <c r="A6" s="50">
+    <row r="6" ht="27" customHeight="1" spans="1:7">
+      <c r="A6">
         <v>989996</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6">
         <v>0.1</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="27" customHeight="1">
-      <c r="A7" s="50">
+    <row r="7" ht="27" customHeight="1" spans="1:7">
+      <c r="A7">
         <v>989997</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7">
         <v>0.3</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="27" customHeight="1">
-      <c r="A8" s="50">
+    <row r="8" ht="27" customHeight="1" spans="1:7">
+      <c r="A8">
         <v>989998</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8">
         <v>0.3</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="27" customHeight="1">
-      <c r="A9" s="50">
+    <row r="9" ht="27" customHeight="1" spans="1:7">
+      <c r="A9">
         <v>989999</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9">
         <v>0.3</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="27" customHeight="1">
-      <c r="A10" s="50">
+    <row r="10" ht="27" customHeight="1" spans="1:6">
+      <c r="A10">
+        <v>999952</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:6">
+      <c r="A11">
+        <v>999953</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" ht="27" customHeight="1" spans="1:6">
+      <c r="A12">
+        <v>999954</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="1:6">
+      <c r="A13">
+        <v>999955</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" ht="27" customHeight="1" spans="1:6">
+      <c r="A14">
+        <v>999956</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" ht="27" customHeight="1" spans="1:6">
+      <c r="A15">
+        <v>999957</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" ht="27" customHeight="1" spans="1:6">
+      <c r="A16">
+        <v>999958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" ht="27" customHeight="1" spans="1:6">
+      <c r="A17">
+        <v>999959</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:6">
+      <c r="A18">
+        <v>999960</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:6">
+      <c r="A19">
+        <v>999961</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" ht="27" customHeight="1" spans="1:6">
+      <c r="A20">
+        <v>999962</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" ht="27" customHeight="1" spans="1:6">
+      <c r="A21">
+        <v>999963</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1" spans="1:6">
+      <c r="A22">
         <v>999964</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="50" t="s">
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" ht="27" customHeight="1">
-      <c r="A11" s="50">
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" ht="27" customHeight="1" spans="1:6">
+      <c r="A23">
         <v>999965</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1" spans="1:6">
+      <c r="A24">
+        <v>999966</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1" spans="1:6">
+      <c r="A25">
+        <v>999967</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1" spans="1:6">
+      <c r="A26">
+        <v>999968</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1" spans="1:6">
+      <c r="A27">
+        <v>999969</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1" spans="1:6">
+      <c r="A28">
+        <v>999970</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" ht="27" customHeight="1" spans="1:6">
+      <c r="A29">
+        <v>999971</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" ht="27" customHeight="1" spans="1:6">
+      <c r="A30">
+        <v>999972</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" ht="27" customHeight="1" spans="1:6">
+      <c r="A31">
+        <v>999973</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="50" t="s">
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" ht="27" customHeight="1" spans="1:6">
+      <c r="A32">
+        <v>999974</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" ht="27" customHeight="1" spans="1:6">
+      <c r="A33">
+        <v>999975</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" ht="27" customHeight="1" spans="1:6">
+      <c r="A34">
+        <v>999976</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" ht="27" customHeight="1" spans="1:6">
+      <c r="A35">
+        <v>999977</v>
+      </c>
+      <c r="B35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" ht="27" customHeight="1" spans="1:6">
+      <c r="A36">
+        <v>999978</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" ht="27" customHeight="1" spans="1:6">
+      <c r="A37">
+        <v>999979</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" ht="27" customHeight="1" spans="1:6">
+      <c r="A38">
+        <v>999980</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" ht="27" customHeight="1" spans="1:6">
+      <c r="A39">
+        <v>999981</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" ht="27" customHeight="1" spans="1:6">
+      <c r="A40">
+        <v>999982</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" ht="27" customHeight="1" spans="1:6">
+      <c r="A41">
+        <v>999983</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" ht="27" customHeight="1" spans="1:6">
+      <c r="A42">
+        <v>999984</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" ht="27" customHeight="1" spans="1:6">
+      <c r="A43">
+        <v>999985</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" ht="27" customHeight="1">
-      <c r="A12" s="50">
-        <v>999966</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" ht="27" customHeight="1">
-      <c r="A13" s="50">
-        <v>999967</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="E43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" ht="27" customHeight="1" spans="1:6">
+      <c r="A44">
+        <v>999986</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" ht="27" customHeight="1" spans="1:6">
+      <c r="A45">
+        <v>999987</v>
+      </c>
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" ht="27" customHeight="1" spans="1:6">
+      <c r="A46">
+        <v>999988</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" ht="27" customHeight="1" spans="1:6">
+      <c r="A47">
+        <v>999989</v>
+      </c>
+      <c r="B47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" ht="27" customHeight="1" spans="1:7">
+      <c r="A48">
+        <v>999990</v>
+      </c>
+      <c r="B48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" ht="27" customHeight="1">
-      <c r="A14" s="50">
-        <v>999968</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="50" t="s">
+      <c r="D48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" t="s">
+        <v>167</v>
+      </c>
+      <c r="G48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" ht="27" customHeight="1" spans="1:6">
+      <c r="A49">
+        <v>999991</v>
+      </c>
+      <c r="B49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" ht="27" customHeight="1" spans="1:6">
+      <c r="A50">
+        <v>999992</v>
+      </c>
+      <c r="B50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>999993</v>
+      </c>
+      <c r="B51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51">
+        <v>0.1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" t="s">
+        <v>180</v>
+      </c>
+      <c r="G51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>999994</v>
+      </c>
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52">
+        <v>0.12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>999995</v>
+      </c>
+      <c r="B53" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53">
+        <v>0.1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" t="s">
+        <v>187</v>
+      </c>
+      <c r="G53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>999996</v>
+      </c>
+      <c r="B54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54">
+        <v>0.1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" t="s">
+        <v>190</v>
+      </c>
+      <c r="G54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>999997</v>
+      </c>
+      <c r="B55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55">
+        <v>0.1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" ht="27" customHeight="1">
-      <c r="A15" s="50">
-        <v>999969</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" ht="27" customHeight="1">
-      <c r="A16" s="50">
-        <v>999970</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" ht="27" customHeight="1">
-      <c r="A17" s="50">
-        <v>999971</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" ht="27" customHeight="1">
-      <c r="A18" s="50">
-        <v>999972</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" ht="27" customHeight="1">
-      <c r="A19" s="50">
-        <v>999973</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" ht="27" customHeight="1">
-      <c r="A20" s="50">
-        <v>999974</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" ht="27" customHeight="1">
-      <c r="A21" s="50">
-        <v>999975</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" ht="27" customHeight="1">
-      <c r="A22" s="50">
-        <v>999976</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" ht="27" customHeight="1">
-      <c r="A23" s="50">
-        <v>999977</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" ht="27" customHeight="1">
-      <c r="A24" s="50">
-        <v>999978</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" ht="27" customHeight="1">
-      <c r="A25" s="50">
-        <v>999979</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" ht="27" customHeight="1">
-      <c r="A26" s="50">
-        <v>999980</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" ht="27" customHeight="1">
-      <c r="A27" s="50">
-        <v>999981</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" ht="27" customHeight="1">
-      <c r="A28" s="50">
-        <v>999982</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" ht="27" customHeight="1">
-      <c r="A29" s="50">
-        <v>999983</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" ht="27" customHeight="1">
-      <c r="A30" s="50">
-        <v>999984</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" ht="27" customHeight="1">
-      <c r="A31" s="50">
-        <v>999985</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="50" t="s">
+      <c r="F55" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1" spans="1:7">
+      <c r="A56">
+        <v>999998</v>
+      </c>
+      <c r="B56" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56">
+        <v>0.1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>999999</v>
+      </c>
+      <c r="B57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57">
+        <v>0.14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" ht="27" customHeight="1">
-      <c r="A32" s="50">
-        <v>999986</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" ht="27" customHeight="1">
-      <c r="A33" s="50">
-        <v>999987</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" ht="27" customHeight="1">
-      <c r="A34" s="50">
-        <v>999988</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" ht="27" customHeight="1">
-      <c r="A35" s="50">
-        <v>999989</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" ht="27" customHeight="1">
-      <c r="A36" s="50">
-        <v>999990</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" ht="27" customHeight="1">
-      <c r="A37" s="50">
-        <v>999991</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" ht="27" customHeight="1">
-      <c r="A38" s="50">
-        <v>999992</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="50">
-        <v>999993</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="50">
-        <v>999994</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="50">
-        <v>0.12</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="50">
-        <v>999995</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="50">
-        <v>999996</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="50">
-        <v>999997</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="50">
-        <v>999998</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="F44" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="G44" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="50">
-        <v>999999</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="50">
-        <v>0.14</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="G45" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" ht="15" customHeight="1"/>
-    <row r="59" ht="15" customHeight="1"/>
-    <row r="60" ht="15" customHeight="1"/>
-    <row r="61" ht="15" customHeight="1"/>
-    <row r="62" ht="15" customHeight="1"/>
-    <row r="63" ht="15" customHeight="1"/>
-    <row r="64" ht="15" customHeight="1"/>
-    <row r="65" ht="15" customHeight="1"/>
-    <row r="66" ht="15" customHeight="1"/>
-    <row r="67" ht="15" customHeight="1"/>
-    <row r="68" ht="15" customHeight="1"/>
-    <row r="100" ht="12" customHeight="1"/>
-    <row r="101" ht="12" customHeight="1"/>
-    <row r="102" ht="12" customHeight="1"/>
-    <row r="103" ht="12" customHeight="1"/>
-    <row r="104" ht="12" customHeight="1"/>
-    <row r="105" ht="12" customHeight="1"/>
-    <row r="106" ht="12" customHeight="1"/>
-    <row r="107" ht="12" customHeight="1"/>
-    <row r="108" ht="12" customHeight="1"/>
+      <c r="F57" t="s">
+        <v>200</v>
+      </c>
+      <c r="G57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1"/>
+    <row r="71" ht="15" customHeight="1"/>
+    <row r="72" ht="15" customHeight="1"/>
+    <row r="73" ht="15" customHeight="1"/>
+    <row r="74" ht="15" customHeight="1"/>
+    <row r="75" ht="15" customHeight="1"/>
+    <row r="76" ht="15" customHeight="1"/>
+    <row r="77" ht="15" customHeight="1"/>
+    <row r="78" ht="15" customHeight="1"/>
+    <row r="79" ht="15" customHeight="1"/>
+    <row r="80" ht="15" customHeight="1"/>
+    <row r="112" ht="12" customHeight="1"/>
+    <row r="113" ht="12" customHeight="1"/>
+    <row r="114" ht="12" customHeight="1"/>
+    <row r="115" ht="12" customHeight="1"/>
+    <row r="116" ht="12" customHeight="1"/>
+    <row r="117" ht="12" customHeight="1"/>
+    <row r="118" ht="12" customHeight="1"/>
+    <row r="119" ht="12" customHeight="1"/>
+    <row r="120" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:R88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="202">
   <si>
     <t>id</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>Mod/Other_1/Kuluoxierback/Kuluoxierback_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Kuluoxierback/Setsuna_Avator_SkeletonData.asset</t>
   </si>
   <si>
     <t>0.5;0,-260</t>
@@ -1592,10 +1595,10 @@
   <sheetPr/>
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A19" sqref="A19"/>
+      <selection pane="topRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2294,11 +2297,14 @@
       <c r="C35" t="s">
         <v>74</v>
       </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
       <c r="E35" t="s">
         <v>76</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:6">
@@ -2306,19 +2312,19 @@
         <v>999978</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:6">
@@ -2326,19 +2332,19 @@
         <v>999979</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
         <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" ht="27" customHeight="1" spans="1:6">
@@ -2346,13 +2352,13 @@
         <v>999980</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
         <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
         <v>87</v>
@@ -2366,16 +2372,16 @@
         <v>999981</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" ht="27" customHeight="1" spans="1:6">
@@ -2383,19 +2389,19 @@
         <v>999982</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
         <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" ht="27" customHeight="1" spans="1:6">
@@ -2403,16 +2409,16 @@
         <v>999983</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
         <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" ht="27" customHeight="1" spans="1:6">
@@ -2420,19 +2426,19 @@
         <v>999984</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" ht="27" customHeight="1" spans="1:6">
@@ -2440,16 +2446,16 @@
         <v>999985</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" ht="27" customHeight="1" spans="1:6">
@@ -2457,19 +2463,19 @@
         <v>999986</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
         <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" ht="27" customHeight="1" spans="1:6">
@@ -2477,19 +2483,19 @@
         <v>999987</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" ht="27" customHeight="1" spans="1:6">
@@ -2497,16 +2503,16 @@
         <v>999988</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" ht="27" customHeight="1" spans="1:6">
@@ -2514,19 +2520,19 @@
         <v>999989</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
         <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:7">
@@ -2534,22 +2540,22 @@
         <v>999990</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="1:6">
@@ -2557,19 +2563,19 @@
         <v>999991</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" ht="27" customHeight="1" spans="1:6">
@@ -2577,19 +2583,19 @@
         <v>999992</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2597,22 +2603,22 @@
         <v>999993</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C51">
         <v>0.1</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2620,22 +2626,22 @@
         <v>999994</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C52">
         <v>0.12</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2643,22 +2649,22 @@
         <v>999995</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C53">
         <v>0.1</v>
       </c>
       <c r="D53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2666,22 +2672,22 @@
         <v>999996</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C54">
         <v>0.1</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E54" t="s">
         <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2689,22 +2695,22 @@
         <v>999997</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C55">
         <v>0.1</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
         <v>56</v>
       </c>
       <c r="F55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:7">
@@ -2712,22 +2718,22 @@
         <v>999998</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56">
         <v>0.1</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2735,22 +2741,22 @@
         <v>999999</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C57">
         <v>0.14</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E57" t="s">
         <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1"/>
@@ -2774,7 +2780,7 @@
     <row r="119" ht="12" customHeight="1"/>
     <row r="120" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:R88">
+  <sortState ref="A4:S88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>id</t>
   </si>
@@ -140,24 +140,78 @@
     <t>1.5;0,-200</t>
   </si>
   <si>
+    <t>Mod/Other_1/Shizhongxiaojie/Shizhongxiaojie_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Shizhongxiaojie/Shizhongxiaojie_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.2;0,-60</t>
+  </si>
+  <si>
+    <t>0.15;-30,-50</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Sion/Sion_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Sion/Sion_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.2;0,-80</t>
+  </si>
+  <si>
+    <t>0.1;0,-220</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Sonia/Sonia_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Sonia/Sonia_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.2;10,-80</t>
+  </si>
+  <si>
+    <t>0.105;0,-220</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Suyite/Suyite_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Suyite/Suyite_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.12;0,-230</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Yury/Yury_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>Mod/Other_1/Yury/Yury_Avator_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>0.1;0,-200</t>
+  </si>
+  <si>
     <t>Mod/Other_1/Baolilong/Baolilong_SkeletonData.asset</t>
   </si>
   <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.2;0,-60</t>
-  </si>
-  <si>
     <t>0.6;0,-180</t>
   </si>
   <si>
     <t>Mod/Other_1/Fusan/Fusan_SkeletonData.asset</t>
   </si>
   <si>
-    <t>0.13</t>
-  </si>
-  <si>
     <t>0.2;0,-55</t>
   </si>
   <si>
@@ -177,9 +231,6 @@
   </si>
   <si>
     <t>Mod/Other_1/Molasuna/Molasuna_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>0.11</t>
   </si>
   <si>
     <t>Mod/Other_1/Molasuna/Molasuna_Avator_SkeletonData.asset</t>
@@ -650,7 +701,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -658,7 +708,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -666,14 +715,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,7 +728,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -689,7 +735,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -697,7 +742,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -705,7 +749,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -713,14 +756,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -728,7 +769,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -736,7 +776,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -744,14 +783,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -759,35 +796,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1241,8 +1273,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="51">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1593,1192 +1775,1292 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B41" sqref="B41"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="84.125" customWidth="1"/>
-    <col min="3" max="6" width="62.625" customWidth="1"/>
-    <col min="7" max="7" width="42.875" customWidth="1"/>
-    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1" style="50"/>
+    <col min="2" max="2" width="84.125" customWidth="1" style="50"/>
+    <col min="3" max="6" width="62.625" customWidth="1" style="50"/>
+    <col min="7" max="7" width="42.875" customWidth="1" style="50"/>
+    <col min="8" max="8" width="25.125" customWidth="1" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="50">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="50">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="50">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:7">
-      <c r="A6">
+    <row r="6" ht="27" customHeight="1">
+      <c r="A6" s="50">
         <v>989996</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="50">
         <v>0.1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="27" customHeight="1" spans="1:7">
-      <c r="A7">
+    <row r="7" ht="27" customHeight="1">
+      <c r="A7" s="50">
         <v>989997</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="50">
         <v>0.3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="27" customHeight="1" spans="1:7">
-      <c r="A8">
+    <row r="8" ht="27" customHeight="1">
+      <c r="A8" s="50">
         <v>989998</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="50">
         <v>0.3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="27" customHeight="1" spans="1:7">
-      <c r="A9">
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="50">
         <v>989999</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="50">
         <v>0.3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="27" customHeight="1" spans="1:6">
-      <c r="A10">
+    <row r="10" ht="27" customHeight="1">
+      <c r="A10" s="50">
+        <v>999947</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1">
+      <c r="A11" s="50">
+        <v>999948</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" ht="27" customHeight="1">
+      <c r="A12" s="50">
+        <v>999949</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" ht="27" customHeight="1">
+      <c r="A13" s="50">
+        <v>999950</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" ht="27" customHeight="1">
+      <c r="A14" s="50">
+        <v>999951</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" ht="27" customHeight="1">
+      <c r="A15" s="50">
         <v>999952</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B15" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" ht="27" customHeight="1">
+      <c r="A16" s="50">
+        <v>999953</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E16" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" ht="27" customHeight="1">
+      <c r="A17" s="50">
+        <v>999954</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1">
+      <c r="A18" s="50">
+        <v>999955</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" ht="27" customHeight="1">
+      <c r="A19" s="50">
+        <v>999956</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" ht="27" customHeight="1">
+      <c r="A20" s="50">
+        <v>999957</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="50" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" ht="27" customHeight="1" spans="1:6">
-      <c r="A11">
-        <v>999953</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F20" s="50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" ht="27" customHeight="1">
+      <c r="A21" s="50">
+        <v>999958</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1">
+      <c r="A22" s="50">
+        <v>999959</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" ht="27" customHeight="1">
+      <c r="A23" s="50">
+        <v>999960</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" ht="27" customHeight="1" spans="1:6">
-      <c r="A12">
-        <v>999954</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D23" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1">
+      <c r="A24" s="50">
+        <v>999961</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" ht="27" customHeight="1" spans="1:6">
-      <c r="A13">
-        <v>999955</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" ht="27" customHeight="1" spans="1:6">
-      <c r="A14">
-        <v>999956</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D24" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1">
+      <c r="A25" s="50">
+        <v>999962</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1">
+      <c r="A26" s="50">
+        <v>999963</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1">
+      <c r="A27" s="50">
+        <v>999964</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" ht="27" customHeight="1" spans="1:6">
-      <c r="A15">
-        <v>999957</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" ht="27" customHeight="1" spans="1:6">
-      <c r="A16">
-        <v>999958</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D27" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1">
+      <c r="A28" s="50">
+        <v>999965</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" ht="27" customHeight="1">
+      <c r="A29" s="50">
+        <v>999966</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" ht="27" customHeight="1">
+      <c r="A30" s="50">
+        <v>999967</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" ht="27" customHeight="1">
+      <c r="A31" s="50">
+        <v>999968</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" ht="27" customHeight="1">
+      <c r="A32" s="50">
+        <v>999969</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" ht="27" customHeight="1">
+      <c r="A33" s="50">
+        <v>999970</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" ht="27" customHeight="1">
+      <c r="A34" s="50">
+        <v>999971</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" ht="27" customHeight="1">
+      <c r="A35" s="50">
+        <v>999972</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" ht="27" customHeight="1">
+      <c r="A36" s="50">
+        <v>999973</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" ht="27" customHeight="1">
+      <c r="A37" s="50">
+        <v>999974</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" ht="27" customHeight="1">
+      <c r="A38" s="50">
+        <v>999975</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" ht="27" customHeight="1">
+      <c r="A39" s="50">
+        <v>999976</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" ht="27" customHeight="1">
+      <c r="A40" s="50">
+        <v>999977</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" ht="27" customHeight="1">
+      <c r="A41" s="50">
+        <v>999978</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" ht="27" customHeight="1">
+      <c r="A42" s="50">
+        <v>999979</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" ht="27" customHeight="1">
+      <c r="A43" s="50">
+        <v>999980</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" ht="27" customHeight="1">
+      <c r="A44" s="50">
+        <v>999981</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" ht="27" customHeight="1">
+      <c r="A45" s="50">
+        <v>999982</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" ht="27" customHeight="1">
+      <c r="A46" s="50">
+        <v>999983</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" ht="27" customHeight="1">
+      <c r="A47" s="50">
+        <v>999984</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" ht="27" customHeight="1">
+      <c r="A48" s="50">
+        <v>999985</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="50" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" ht="27" customHeight="1" spans="1:6">
-      <c r="A17">
-        <v>999959</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" ht="27" customHeight="1" spans="1:6">
-      <c r="A18">
-        <v>999960</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" ht="27" customHeight="1" spans="1:6">
-      <c r="A19">
-        <v>999961</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" ht="27" customHeight="1" spans="1:6">
-      <c r="A20">
-        <v>999962</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E48" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" ht="27" customHeight="1">
+      <c r="A49" s="50">
+        <v>999986</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" ht="27" customHeight="1">
+      <c r="A50" s="50">
+        <v>999987</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" ht="27" customHeight="1">
+      <c r="A51" s="50">
+        <v>999988</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" ht="27" customHeight="1">
+      <c r="A52" s="50">
+        <v>999989</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" ht="27" customHeight="1">
+      <c r="A53" s="50">
+        <v>999990</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" ht="27" customHeight="1">
+      <c r="A54" s="50">
+        <v>999991</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" ht="27" customHeight="1">
+      <c r="A55" s="50">
+        <v>999992</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="50">
+        <v>999993</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="50">
+        <v>999994</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="G57" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="50">
+        <v>999995</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="G58" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="50">
+        <v>999996</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="G59" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="50">
+        <v>999997</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" ht="27" customHeight="1" spans="1:6">
-      <c r="A21">
-        <v>999963</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" ht="27" customHeight="1" spans="1:6">
-      <c r="A22">
-        <v>999964</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" ht="27" customHeight="1" spans="1:6">
-      <c r="A23">
-        <v>999965</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" ht="27" customHeight="1" spans="1:6">
-      <c r="A24">
-        <v>999966</v>
-      </c>
-      <c r="B24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" ht="27" customHeight="1" spans="1:6">
-      <c r="A25">
-        <v>999967</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" ht="27" customHeight="1" spans="1:6">
-      <c r="A26">
-        <v>999968</v>
-      </c>
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" ht="27" customHeight="1" spans="1:6">
-      <c r="A27">
-        <v>999969</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" ht="27" customHeight="1" spans="1:6">
-      <c r="A28">
-        <v>999970</v>
-      </c>
-      <c r="B28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" ht="27" customHeight="1" spans="1:6">
-      <c r="A29">
-        <v>999971</v>
-      </c>
-      <c r="B29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" ht="27" customHeight="1" spans="1:6">
-      <c r="A30">
-        <v>999972</v>
-      </c>
-      <c r="B30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" ht="27" customHeight="1" spans="1:6">
-      <c r="A31">
-        <v>999973</v>
-      </c>
-      <c r="B31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" ht="27" customHeight="1" spans="1:6">
-      <c r="A32">
-        <v>999974</v>
-      </c>
-      <c r="B32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" ht="27" customHeight="1" spans="1:6">
-      <c r="A33">
-        <v>999975</v>
-      </c>
-      <c r="B33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" ht="27" customHeight="1" spans="1:6">
-      <c r="A34">
-        <v>999976</v>
-      </c>
-      <c r="B34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" ht="27" customHeight="1" spans="1:6">
-      <c r="A35">
-        <v>999977</v>
-      </c>
-      <c r="B35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" ht="27" customHeight="1" spans="1:6">
-      <c r="A36">
-        <v>999978</v>
-      </c>
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F60" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="G60" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1">
+      <c r="A61" s="50">
+        <v>999998</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="50">
+        <v>999999</v>
+      </c>
+      <c r="B62" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="50">
+        <v>0.14</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="F36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" ht="27" customHeight="1" spans="1:6">
-      <c r="A37">
-        <v>999979</v>
-      </c>
-      <c r="B37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" ht="27" customHeight="1" spans="1:6">
-      <c r="A38">
-        <v>999980</v>
-      </c>
-      <c r="B38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" ht="27" customHeight="1" spans="1:6">
-      <c r="A39">
-        <v>999981</v>
-      </c>
-      <c r="B39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" ht="27" customHeight="1" spans="1:6">
-      <c r="A40">
-        <v>999982</v>
-      </c>
-      <c r="B40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" ht="27" customHeight="1" spans="1:6">
-      <c r="A41">
-        <v>999983</v>
-      </c>
-      <c r="B41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>142</v>
-      </c>
-      <c r="F41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" ht="27" customHeight="1" spans="1:6">
-      <c r="A42">
-        <v>999984</v>
-      </c>
-      <c r="B42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" ht="27" customHeight="1" spans="1:6">
-      <c r="A43">
-        <v>999985</v>
-      </c>
-      <c r="B43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" ht="27" customHeight="1" spans="1:6">
-      <c r="A44">
-        <v>999986</v>
-      </c>
-      <c r="B44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" ht="27" customHeight="1" spans="1:6">
-      <c r="A45">
-        <v>999987</v>
-      </c>
-      <c r="B45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" t="s">
-        <v>157</v>
-      </c>
-      <c r="E45" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" ht="27" customHeight="1" spans="1:6">
-      <c r="A46">
-        <v>999988</v>
-      </c>
-      <c r="B46" t="s">
-        <v>159</v>
-      </c>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" ht="27" customHeight="1" spans="1:6">
-      <c r="A47">
-        <v>999989</v>
-      </c>
-      <c r="B47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" ht="27" customHeight="1" spans="1:7">
-      <c r="A48">
-        <v>999990</v>
-      </c>
-      <c r="B48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48" t="s">
-        <v>168</v>
-      </c>
-      <c r="G48" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" ht="27" customHeight="1" spans="1:6">
-      <c r="A49">
-        <v>999991</v>
-      </c>
-      <c r="B49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49" t="s">
-        <v>173</v>
-      </c>
-      <c r="F49" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" ht="27" customHeight="1" spans="1:6">
-      <c r="A50">
-        <v>999992</v>
-      </c>
-      <c r="B50" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" t="s">
-        <v>176</v>
-      </c>
-      <c r="E50" t="s">
-        <v>177</v>
-      </c>
-      <c r="F50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
-        <v>999993</v>
-      </c>
-      <c r="B51" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51">
-        <v>0.1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" t="s">
-        <v>180</v>
-      </c>
-      <c r="F51" t="s">
-        <v>181</v>
-      </c>
-      <c r="G51" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
-        <v>999994</v>
-      </c>
-      <c r="B52" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52">
-        <v>0.12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>183</v>
-      </c>
-      <c r="E52" t="s">
-        <v>184</v>
-      </c>
-      <c r="F52" t="s">
-        <v>185</v>
-      </c>
-      <c r="G52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>999995</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="F62" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="G62" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="C53">
-        <v>0.1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>187</v>
-      </c>
-      <c r="E53" t="s">
-        <v>153</v>
-      </c>
-      <c r="F53" t="s">
-        <v>188</v>
-      </c>
-      <c r="G53" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>999996</v>
-      </c>
-      <c r="B54" t="s">
-        <v>189</v>
-      </c>
-      <c r="C54">
-        <v>0.1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>190</v>
-      </c>
-      <c r="E54" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" t="s">
-        <v>191</v>
-      </c>
-      <c r="G54" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>999997</v>
-      </c>
-      <c r="B55" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55">
-        <v>0.1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>193</v>
-      </c>
-      <c r="E55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" t="s">
-        <v>194</v>
-      </c>
-      <c r="G55" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" ht="15" customHeight="1" spans="1:7">
-      <c r="A56">
-        <v>999998</v>
-      </c>
-      <c r="B56" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56">
-        <v>0.1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>196</v>
-      </c>
-      <c r="E56" t="s">
-        <v>197</v>
-      </c>
-      <c r="F56" t="s">
-        <v>198</v>
-      </c>
-      <c r="G56" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>999999</v>
-      </c>
-      <c r="B57" t="s">
-        <v>199</v>
-      </c>
-      <c r="C57">
-        <v>0.14</v>
-      </c>
-      <c r="D57" t="s">
-        <v>200</v>
-      </c>
-      <c r="E57" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>201</v>
-      </c>
-      <c r="G57" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" ht="15" customHeight="1"/>
-    <row r="71" ht="15" customHeight="1"/>
-    <row r="72" ht="15" customHeight="1"/>
-    <row r="73" ht="15" customHeight="1"/>
-    <row r="74" ht="15" customHeight="1"/>
+    </row>
     <row r="75" ht="15" customHeight="1"/>
     <row r="76" ht="15" customHeight="1"/>
     <row r="77" ht="15" customHeight="1"/>
     <row r="78" ht="15" customHeight="1"/>
     <row r="79" ht="15" customHeight="1"/>
     <row r="80" ht="15" customHeight="1"/>
-    <row r="112" ht="12" customHeight="1"/>
-    <row r="113" ht="12" customHeight="1"/>
-    <row r="114" ht="12" customHeight="1"/>
-    <row r="115" ht="12" customHeight="1"/>
-    <row r="116" ht="12" customHeight="1"/>
+    <row r="81" ht="15" customHeight="1"/>
+    <row r="82" ht="15" customHeight="1"/>
+    <row r="83" ht="15" customHeight="1"/>
+    <row r="84" ht="15" customHeight="1"/>
+    <row r="85" ht="15" customHeight="1"/>
     <row r="117" ht="12" customHeight="1"/>
     <row r="118" ht="12" customHeight="1"/>
     <row r="119" ht="12" customHeight="1"/>
     <row r="120" ht="12" customHeight="1"/>
+    <row r="121" ht="12" customHeight="1"/>
+    <row r="122" ht="12" customHeight="1"/>
+    <row r="123" ht="12" customHeight="1"/>
+    <row r="124" ht="12" customHeight="1"/>
+    <row r="125" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModel" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>id</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>人类</t>
+  </si>
+  <si>
+    <t>Creature/Slime/Slime_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>2.5;0,-40</t>
+  </si>
+  <si>
+    <t>5;0,-120</t>
+  </si>
+  <si>
+    <t>史莱姆</t>
   </si>
   <si>
     <t>Mod/Other_2/Aoliweiya_ChongChong/Aoliweiya_ChongChong_SkeletonData.asset</t>
@@ -1273,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1419,9 +1431,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -1775,1273 +1784,1292 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1" style="50"/>
-    <col min="2" max="2" width="84.125" customWidth="1" style="50"/>
-    <col min="3" max="6" width="62.625" customWidth="1" style="50"/>
-    <col min="7" max="7" width="42.875" customWidth="1" style="50"/>
-    <col min="8" max="8" width="25.125" customWidth="1" style="50"/>
+    <col min="1" max="1" width="17.375" customWidth="1" style="49"/>
+    <col min="2" max="2" width="84.125" customWidth="1" style="49"/>
+    <col min="3" max="6" width="62.625" customWidth="1" style="49"/>
+    <col min="7" max="7" width="42.875" customWidth="1" style="49"/>
+    <col min="8" max="8" width="25.125" customWidth="1" style="49"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="49" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="50">
+      <c r="A4" s="49">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <v>1</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="50">
+      <c r="A5" s="49">
         <v>2</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1">
-      <c r="A6" s="50">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="49">
+        <v>3</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1">
+      <c r="A7" s="49">
         <v>989996</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="50">
+      <c r="B7" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="49">
         <v>0.1</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" ht="27" customHeight="1">
-      <c r="A7" s="50">
+      <c r="E7" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1">
+      <c r="A8" s="49">
         <v>989997</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="50">
+      <c r="B8" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="49">
         <v>0.3</v>
       </c>
-      <c r="E7" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" ht="27" customHeight="1">
-      <c r="A8" s="50">
+      <c r="E8" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="49">
         <v>989998</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B9" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="50">
+    </row>
+    <row r="10" ht="27" customHeight="1">
+      <c r="A10" s="49">
+        <v>989999</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="49">
         <v>0.3</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" ht="27" customHeight="1">
-      <c r="A9" s="50">
-        <v>989999</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="50">
-        <v>0.3</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" ht="27" customHeight="1">
-      <c r="A10" s="50">
+      <c r="E10" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1">
+      <c r="A11" s="49">
         <v>999947</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" ht="27" customHeight="1">
-      <c r="A11" s="50">
+      <c r="C11" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" ht="27" customHeight="1">
+      <c r="A12" s="49">
         <v>999948</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B12" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" ht="27" customHeight="1">
+      <c r="A13" s="49">
+        <v>999949</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" ht="27" customHeight="1">
+      <c r="A14" s="49">
+        <v>999950</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" ht="27" customHeight="1">
+      <c r="A15" s="49">
+        <v>999951</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" ht="27" customHeight="1">
+      <c r="A16" s="49">
+        <v>999952</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" ht="27" customHeight="1">
+      <c r="A17" s="49">
+        <v>999953</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="E17" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1">
+      <c r="A18" s="49">
+        <v>999954</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" ht="27" customHeight="1">
+      <c r="A19" s="49">
+        <v>999955</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" ht="27" customHeight="1">
+      <c r="A20" s="49">
+        <v>999956</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" ht="27" customHeight="1">
+      <c r="A21" s="49">
+        <v>999957</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" ht="27" customHeight="1">
-      <c r="A12" s="50">
-        <v>999949</v>
-      </c>
-      <c r="B12" s="50" t="s">
+      <c r="F21" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1">
+      <c r="A22" s="49">
+        <v>999958</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" ht="27" customHeight="1">
+      <c r="A23" s="49">
+        <v>999959</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1">
+      <c r="A24" s="49">
+        <v>999960</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" ht="27" customHeight="1">
-      <c r="A13" s="50">
-        <v>999950</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" ht="27" customHeight="1">
-      <c r="A14" s="50">
-        <v>999951</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" ht="27" customHeight="1">
-      <c r="A15" s="50">
-        <v>999952</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="50" t="s">
+      <c r="D24" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1">
+      <c r="A25" s="49">
+        <v>999961</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1">
+      <c r="A26" s="49">
+        <v>999962</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1">
+      <c r="A27" s="49">
+        <v>999963</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1">
+      <c r="A28" s="49">
+        <v>999964</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="49" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" ht="27" customHeight="1">
-      <c r="A16" s="50">
-        <v>999953</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" ht="27" customHeight="1">
-      <c r="A17" s="50">
-        <v>999954</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" ht="27" customHeight="1">
-      <c r="A18" s="50">
-        <v>999955</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="50" t="s">
+      <c r="D28" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" ht="27" customHeight="1">
+      <c r="A29" s="49">
+        <v>999965</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" ht="27" customHeight="1">
+      <c r="A30" s="49">
+        <v>999966</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" ht="27" customHeight="1">
+      <c r="A31" s="49">
+        <v>999967</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" ht="27" customHeight="1">
+      <c r="A32" s="49">
+        <v>999968</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" ht="27" customHeight="1">
+      <c r="A33" s="49">
+        <v>999969</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" ht="27" customHeight="1">
+      <c r="A34" s="49">
+        <v>999970</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" ht="27" customHeight="1">
+      <c r="A35" s="49">
+        <v>999971</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" ht="27" customHeight="1">
+      <c r="A36" s="49">
+        <v>999972</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" ht="27" customHeight="1">
+      <c r="A37" s="49">
+        <v>999973</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" ht="27" customHeight="1">
+      <c r="A38" s="49">
+        <v>999974</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" ht="27" customHeight="1">
+      <c r="A39" s="49">
+        <v>999975</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" ht="27" customHeight="1">
+      <c r="A40" s="49">
+        <v>999976</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" ht="27" customHeight="1">
+      <c r="A41" s="49">
+        <v>999977</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" ht="27" customHeight="1">
+      <c r="A42" s="49">
+        <v>999978</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" ht="27" customHeight="1">
+      <c r="A43" s="49">
+        <v>999979</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" ht="27" customHeight="1">
+      <c r="A44" s="49">
+        <v>999980</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" ht="27" customHeight="1">
+      <c r="A45" s="49">
+        <v>999981</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" ht="27" customHeight="1">
+      <c r="A46" s="49">
+        <v>999982</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" ht="27" customHeight="1">
+      <c r="A47" s="49">
+        <v>999983</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" ht="27" customHeight="1">
+      <c r="A48" s="49">
+        <v>999984</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" ht="27" customHeight="1">
+      <c r="A49" s="49">
+        <v>999985</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" ht="27" customHeight="1">
-      <c r="A19" s="50">
-        <v>999956</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" ht="27" customHeight="1">
-      <c r="A20" s="50">
-        <v>999957</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="50" t="s">
+      <c r="E49" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" ht="27" customHeight="1">
+      <c r="A50" s="49">
+        <v>999986</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" ht="27" customHeight="1">
+      <c r="A51" s="49">
+        <v>999987</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" ht="27" customHeight="1">
+      <c r="A52" s="49">
+        <v>999988</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" ht="27" customHeight="1">
+      <c r="A53" s="49">
+        <v>999989</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" ht="27" customHeight="1">
+      <c r="A54" s="49">
+        <v>999990</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="G54" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" ht="27" customHeight="1">
+      <c r="A55" s="49">
+        <v>999991</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" ht="27" customHeight="1">
+      <c r="A56" s="49">
+        <v>999992</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="49">
+        <v>999993</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="G57" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="49">
+        <v>999994</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="G58" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="49">
+        <v>999995</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="G59" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="49">
+        <v>999996</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="G60" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="49">
+        <v>999997</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" s="49" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" ht="27" customHeight="1">
-      <c r="A21" s="50">
-        <v>999958</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" ht="27" customHeight="1">
-      <c r="A22" s="50">
-        <v>999959</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" ht="27" customHeight="1">
-      <c r="A23" s="50">
-        <v>999960</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" ht="27" customHeight="1">
-      <c r="A24" s="50">
-        <v>999961</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" ht="27" customHeight="1">
-      <c r="A25" s="50">
-        <v>999962</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" ht="27" customHeight="1">
-      <c r="A26" s="50">
-        <v>999963</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" ht="27" customHeight="1">
-      <c r="A27" s="50">
-        <v>999964</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" ht="27" customHeight="1">
-      <c r="A28" s="50">
-        <v>999965</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" ht="27" customHeight="1">
-      <c r="A29" s="50">
-        <v>999966</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" ht="27" customHeight="1">
-      <c r="A30" s="50">
-        <v>999967</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" ht="27" customHeight="1">
-      <c r="A31" s="50">
-        <v>999968</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" ht="27" customHeight="1">
-      <c r="A32" s="50">
-        <v>999969</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" ht="27" customHeight="1">
-      <c r="A33" s="50">
-        <v>999970</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" ht="27" customHeight="1">
-      <c r="A34" s="50">
-        <v>999971</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" ht="27" customHeight="1">
-      <c r="A35" s="50">
-        <v>999972</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" ht="27" customHeight="1">
-      <c r="A36" s="50">
-        <v>999973</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" ht="27" customHeight="1">
-      <c r="A37" s="50">
-        <v>999974</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="50" t="s">
+      <c r="F61" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1">
+      <c r="A62" s="49">
+        <v>999998</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="G62" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="49">
+        <v>999999</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" s="49">
+        <v>0.14</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="49" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="38" ht="27" customHeight="1">
-      <c r="A38" s="50">
-        <v>999975</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" ht="27" customHeight="1">
-      <c r="A39" s="50">
-        <v>999976</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" ht="27" customHeight="1">
-      <c r="A40" s="50">
-        <v>999977</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" ht="27" customHeight="1">
-      <c r="A41" s="50">
-        <v>999978</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" ht="27" customHeight="1">
-      <c r="A42" s="50">
-        <v>999979</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="F42" s="50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" ht="27" customHeight="1">
-      <c r="A43" s="50">
-        <v>999980</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F43" s="50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" ht="27" customHeight="1">
-      <c r="A44" s="50">
-        <v>999981</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" s="50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" ht="27" customHeight="1">
-      <c r="A45" s="50">
-        <v>999982</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" ht="27" customHeight="1">
-      <c r="A46" s="50">
-        <v>999983</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" ht="27" customHeight="1">
-      <c r="A47" s="50">
-        <v>999984</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" s="50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" ht="27" customHeight="1">
-      <c r="A48" s="50">
-        <v>999985</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" ht="27" customHeight="1">
-      <c r="A49" s="50">
-        <v>999986</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" ht="27" customHeight="1">
-      <c r="A50" s="50">
-        <v>999987</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="F50" s="50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" ht="27" customHeight="1">
-      <c r="A51" s="50">
-        <v>999988</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" ht="27" customHeight="1">
-      <c r="A52" s="50">
-        <v>999989</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="F52" s="50" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" ht="27" customHeight="1">
-      <c r="A53" s="50">
-        <v>999990</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="E53" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="F53" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="G53" s="50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" ht="27" customHeight="1">
-      <c r="A54" s="50">
-        <v>999991</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="D54" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="E54" s="50" t="s">
+      <c r="F63" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="F54" s="50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" ht="27" customHeight="1">
-      <c r="A55" s="50">
-        <v>999992</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="E55" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="F55" s="50" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="50">
-        <v>999993</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D56" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="E56" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F56" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="G56" s="50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="50">
-        <v>999994</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="C57" s="50">
-        <v>0.12</v>
-      </c>
-      <c r="D57" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="E57" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="F57" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="G57" s="50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="50">
-        <v>999995</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="C58" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D58" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="E58" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="F58" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="G58" s="50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="50">
-        <v>999996</v>
-      </c>
-      <c r="B59" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C59" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D59" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="E59" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F59" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="G59" s="50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="50">
-        <v>999997</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D60" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E60" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="G60" s="50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" ht="15" customHeight="1">
-      <c r="A61" s="50">
-        <v>999998</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="C61" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="D61" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="E61" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="F61" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="G61" s="50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="50">
-        <v>999999</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="C62" s="50">
-        <v>0.14</v>
-      </c>
-      <c r="D62" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="E62" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F62" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="G62" s="50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" ht="15" customHeight="1"/>
+    </row>
     <row r="76" ht="15" customHeight="1"/>
     <row r="77" ht="15" customHeight="1"/>
     <row r="78" ht="15" customHeight="1"/>
@@ -3052,7 +3080,7 @@
     <row r="83" ht="15" customHeight="1"/>
     <row r="84" ht="15" customHeight="1"/>
     <row r="85" ht="15" customHeight="1"/>
-    <row r="117" ht="12" customHeight="1"/>
+    <row r="86" ht="15" customHeight="1"/>
     <row r="118" ht="12" customHeight="1"/>
     <row r="119" ht="12" customHeight="1"/>
     <row r="120" ht="12" customHeight="1"/>
@@ -3061,6 +3089,7 @@
     <row r="123" ht="12" customHeight="1"/>
     <row r="124" ht="12" customHeight="1"/>
     <row r="125" ht="12" customHeight="1"/>
+    <row r="126" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>id</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>史莱姆</t>
+  </si>
+  <si>
+    <t>Creature/Succubus/Succubus_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>2.5;0,-130</t>
+  </si>
+  <si>
+    <t>4;0,-200</t>
+  </si>
+  <si>
+    <t>魅魔</t>
   </si>
   <si>
     <t>Mod/Other_2/Aoliweiya_ChongChong/Aoliweiya_ChongChong_SkeletonData.asset</t>
@@ -1285,7 +1297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1431,6 +1443,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -1784,1293 +1799,1312 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1" style="49"/>
-    <col min="2" max="2" width="84.125" customWidth="1" style="49"/>
-    <col min="3" max="6" width="62.625" customWidth="1" style="49"/>
-    <col min="7" max="7" width="42.875" customWidth="1" style="49"/>
-    <col min="8" max="8" width="25.125" customWidth="1" style="49"/>
+    <col min="1" max="1" width="17.375" customWidth="1" style="50"/>
+    <col min="2" max="2" width="84.125" customWidth="1" style="50"/>
+    <col min="3" max="6" width="62.625" customWidth="1" style="50"/>
+    <col min="7" max="7" width="42.875" customWidth="1" style="50"/>
+    <col min="8" max="8" width="25.125" customWidth="1" style="50"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="50" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49">
+      <c r="A4" s="50">
         <v>1</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="50">
         <v>1</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="49">
+      <c r="A5" s="50">
         <v>2</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="50" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="49">
+      <c r="A6" s="50">
         <v>3</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="27" customHeight="1">
-      <c r="A7" s="49">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="50">
+        <v>4</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1">
+      <c r="A8" s="50">
         <v>989996</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="49">
+      <c r="B8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="50">
         <v>0.1</v>
       </c>
-      <c r="E7" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" ht="27" customHeight="1">
-      <c r="A8" s="49">
+      <c r="E8" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="50">
         <v>989997</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="49">
+      <c r="B9" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="50">
         <v>0.3</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" ht="27" customHeight="1">
-      <c r="A9" s="49">
+      <c r="E9" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1">
+      <c r="A10" s="50">
         <v>989998</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B10" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="49">
+    </row>
+    <row r="11" ht="27" customHeight="1">
+      <c r="A11" s="50">
+        <v>989999</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="50">
         <v>0.3</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" ht="27" customHeight="1">
-      <c r="A10" s="49">
-        <v>989999</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="49">
-        <v>0.3</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" ht="27" customHeight="1">
-      <c r="A11" s="49">
+      <c r="E11" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="27" customHeight="1">
+      <c r="A12" s="50">
         <v>999947</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="49" t="s">
+      <c r="B12" s="50" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" ht="27" customHeight="1">
-      <c r="A12" s="49">
+      <c r="C12" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="27" customHeight="1">
+      <c r="A13" s="50">
         <v>999948</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B13" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" ht="27" customHeight="1">
+      <c r="A14" s="50">
+        <v>999949</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" ht="27" customHeight="1">
+      <c r="A15" s="50">
+        <v>999950</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" ht="27" customHeight="1">
+      <c r="A16" s="50">
+        <v>999951</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" ht="27" customHeight="1">
+      <c r="A17" s="50">
+        <v>999952</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1">
+      <c r="A18" s="50">
+        <v>999953</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="49" t="s">
+      <c r="E18" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" ht="27" customHeight="1">
+      <c r="A19" s="50">
+        <v>999954</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" ht="27" customHeight="1">
+      <c r="A20" s="50">
+        <v>999955</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" ht="27" customHeight="1">
+      <c r="A21" s="50">
+        <v>999956</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1">
+      <c r="A22" s="50">
+        <v>999957</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" ht="27" customHeight="1">
-      <c r="A13" s="49">
-        <v>999949</v>
-      </c>
-      <c r="B13" s="49" t="s">
+      <c r="F22" s="50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" ht="27" customHeight="1">
+      <c r="A23" s="50">
+        <v>999958</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1">
+      <c r="A24" s="50">
+        <v>999959</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1">
+      <c r="A25" s="50">
+        <v>999960</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" ht="27" customHeight="1">
-      <c r="A14" s="49">
-        <v>999950</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" ht="27" customHeight="1">
-      <c r="A15" s="49">
-        <v>999951</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" ht="27" customHeight="1">
-      <c r="A16" s="49">
-        <v>999952</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="49" t="s">
+      <c r="D25" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1">
+      <c r="A26" s="50">
+        <v>999961</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1">
+      <c r="A27" s="50">
+        <v>999962</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1">
+      <c r="A28" s="50">
+        <v>999963</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" ht="27" customHeight="1">
+      <c r="A29" s="50">
+        <v>999964</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="50" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" ht="27" customHeight="1">
-      <c r="A17" s="49">
-        <v>999953</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" ht="27" customHeight="1">
-      <c r="A18" s="49">
-        <v>999954</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" ht="27" customHeight="1">
-      <c r="A19" s="49">
-        <v>999955</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="49" t="s">
+      <c r="D29" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" ht="27" customHeight="1">
+      <c r="A30" s="50">
+        <v>999965</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" ht="27" customHeight="1">
+      <c r="A31" s="50">
+        <v>999966</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" ht="27" customHeight="1">
+      <c r="A32" s="50">
+        <v>999967</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" ht="27" customHeight="1">
+      <c r="A33" s="50">
+        <v>999968</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" ht="27" customHeight="1">
+      <c r="A34" s="50">
+        <v>999969</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" ht="27" customHeight="1">
+      <c r="A35" s="50">
+        <v>999970</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" ht="27" customHeight="1">
+      <c r="A36" s="50">
+        <v>999971</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" ht="27" customHeight="1">
+      <c r="A37" s="50">
+        <v>999972</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" ht="27" customHeight="1">
+      <c r="A38" s="50">
+        <v>999973</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" ht="27" customHeight="1">
+      <c r="A39" s="50">
+        <v>999974</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" ht="27" customHeight="1">
+      <c r="A40" s="50">
+        <v>999975</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" ht="27" customHeight="1">
+      <c r="A41" s="50">
+        <v>999976</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" ht="27" customHeight="1">
+      <c r="A42" s="50">
+        <v>999977</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" ht="27" customHeight="1">
+      <c r="A43" s="50">
+        <v>999978</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" ht="27" customHeight="1">
+      <c r="A44" s="50">
+        <v>999979</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" ht="27" customHeight="1">
+      <c r="A45" s="50">
+        <v>999980</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" ht="27" customHeight="1">
+      <c r="A46" s="50">
+        <v>999981</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" ht="27" customHeight="1">
+      <c r="A47" s="50">
+        <v>999982</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" ht="27" customHeight="1">
+      <c r="A48" s="50">
+        <v>999983</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" ht="27" customHeight="1">
+      <c r="A49" s="50">
+        <v>999984</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" ht="27" customHeight="1">
+      <c r="A50" s="50">
+        <v>999985</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" ht="27" customHeight="1">
-      <c r="A20" s="49">
-        <v>999956</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" ht="27" customHeight="1">
-      <c r="A21" s="49">
-        <v>999957</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="49" t="s">
+      <c r="E50" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" ht="27" customHeight="1">
+      <c r="A51" s="50">
+        <v>999986</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" ht="27" customHeight="1">
+      <c r="A52" s="50">
+        <v>999987</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" ht="27" customHeight="1">
+      <c r="A53" s="50">
+        <v>999988</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" ht="27" customHeight="1">
+      <c r="A54" s="50">
+        <v>999989</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" ht="27" customHeight="1">
+      <c r="A55" s="50">
+        <v>999990</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" ht="27" customHeight="1">
+      <c r="A56" s="50">
+        <v>999991</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" ht="27" customHeight="1">
+      <c r="A57" s="50">
+        <v>999992</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="50">
+        <v>999993</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="G58" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="50">
+        <v>999994</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="50">
+        <v>999995</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="G60" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="50">
+        <v>999996</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="50">
+        <v>999997</v>
+      </c>
+      <c r="B62" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" s="50" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" ht="27" customHeight="1">
-      <c r="A22" s="49">
-        <v>999958</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" ht="27" customHeight="1">
-      <c r="A23" s="49">
-        <v>999959</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" ht="27" customHeight="1">
-      <c r="A24" s="49">
-        <v>999960</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" ht="27" customHeight="1">
-      <c r="A25" s="49">
-        <v>999961</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" ht="27" customHeight="1">
-      <c r="A26" s="49">
-        <v>999962</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" ht="27" customHeight="1">
-      <c r="A27" s="49">
-        <v>999963</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" ht="27" customHeight="1">
-      <c r="A28" s="49">
-        <v>999964</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" ht="27" customHeight="1">
-      <c r="A29" s="49">
-        <v>999965</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" ht="27" customHeight="1">
-      <c r="A30" s="49">
-        <v>999966</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" ht="27" customHeight="1">
-      <c r="A31" s="49">
-        <v>999967</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" ht="27" customHeight="1">
-      <c r="A32" s="49">
-        <v>999968</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" ht="27" customHeight="1">
-      <c r="A33" s="49">
-        <v>999969</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" ht="27" customHeight="1">
-      <c r="A34" s="49">
-        <v>999970</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" ht="27" customHeight="1">
-      <c r="A35" s="49">
-        <v>999971</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" ht="27" customHeight="1">
-      <c r="A36" s="49">
-        <v>999972</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" ht="27" customHeight="1">
-      <c r="A37" s="49">
-        <v>999973</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" ht="27" customHeight="1">
-      <c r="A38" s="49">
-        <v>999974</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="49" t="s">
+      <c r="F62" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="50">
+        <v>999998</v>
+      </c>
+      <c r="B63" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="G63" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="50">
+        <v>999999</v>
+      </c>
+      <c r="B64" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" s="50">
+        <v>0.14</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="E64" s="50" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="39" ht="27" customHeight="1">
-      <c r="A39" s="49">
-        <v>999975</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" ht="27" customHeight="1">
-      <c r="A40" s="49">
-        <v>999976</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" ht="27" customHeight="1">
-      <c r="A41" s="49">
-        <v>999977</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" ht="27" customHeight="1">
-      <c r="A42" s="49">
-        <v>999978</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" ht="27" customHeight="1">
-      <c r="A43" s="49">
-        <v>999979</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" s="49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" ht="27" customHeight="1">
-      <c r="A44" s="49">
-        <v>999980</v>
-      </c>
-      <c r="B44" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" s="49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" ht="27" customHeight="1">
-      <c r="A45" s="49">
-        <v>999981</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="F45" s="49" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" ht="27" customHeight="1">
-      <c r="A46" s="49">
-        <v>999982</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="49" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" ht="27" customHeight="1">
-      <c r="A47" s="49">
-        <v>999983</v>
-      </c>
-      <c r="B47" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" s="49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" ht="27" customHeight="1">
-      <c r="A48" s="49">
-        <v>999984</v>
-      </c>
-      <c r="B48" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" ht="27" customHeight="1">
-      <c r="A49" s="49">
-        <v>999985</v>
-      </c>
-      <c r="B49" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="F49" s="49" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" ht="27" customHeight="1">
-      <c r="A50" s="49">
-        <v>999986</v>
-      </c>
-      <c r="B50" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="E50" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="F50" s="49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" ht="27" customHeight="1">
-      <c r="A51" s="49">
-        <v>999987</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="D51" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="F51" s="49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" ht="27" customHeight="1">
-      <c r="A52" s="49">
-        <v>999988</v>
-      </c>
-      <c r="B52" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="F52" s="49" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" ht="27" customHeight="1">
-      <c r="A53" s="49">
-        <v>999989</v>
-      </c>
-      <c r="B53" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="F53" s="49" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" ht="27" customHeight="1">
-      <c r="A54" s="49">
-        <v>999990</v>
-      </c>
-      <c r="B54" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="F54" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="G54" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" ht="27" customHeight="1">
-      <c r="A55" s="49">
-        <v>999991</v>
-      </c>
-      <c r="B55" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="C55" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="D55" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="E55" s="49" t="s">
+      <c r="F64" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="F55" s="49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" ht="27" customHeight="1">
-      <c r="A56" s="49">
-        <v>999992</v>
-      </c>
-      <c r="B56" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="C56" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="F56" s="49" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="49">
-        <v>999993</v>
-      </c>
-      <c r="B57" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="C57" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="D57" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="E57" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="F57" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="G57" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="49">
-        <v>999994</v>
-      </c>
-      <c r="B58" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="C58" s="49">
-        <v>0.12</v>
-      </c>
-      <c r="D58" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="E58" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="F58" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="G58" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="49">
-        <v>999995</v>
-      </c>
-      <c r="B59" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="D59" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="E59" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="F59" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="G59" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="49">
-        <v>999996</v>
-      </c>
-      <c r="B60" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="D60" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="E60" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F60" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="G60" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="49">
-        <v>999997</v>
-      </c>
-      <c r="B61" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="C61" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="D61" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="G61" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" ht="15" customHeight="1">
-      <c r="A62" s="49">
-        <v>999998</v>
-      </c>
-      <c r="B62" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C62" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="D62" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="E62" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="F62" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="G62" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="49">
-        <v>999999</v>
-      </c>
-      <c r="B63" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="C63" s="49">
-        <v>0.14</v>
-      </c>
-      <c r="D63" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="E63" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="G63" s="49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" ht="15" customHeight="1"/>
+    </row>
     <row r="77" ht="15" customHeight="1"/>
     <row r="78" ht="15" customHeight="1"/>
     <row r="79" ht="15" customHeight="1"/>
@@ -3081,7 +3115,7 @@
     <row r="84" ht="15" customHeight="1"/>
     <row r="85" ht="15" customHeight="1"/>
     <row r="86" ht="15" customHeight="1"/>
-    <row r="118" ht="12" customHeight="1"/>
+    <row r="87" ht="15" customHeight="1"/>
     <row r="119" ht="12" customHeight="1"/>
     <row r="120" ht="12" customHeight="1"/>
     <row r="121" ht="12" customHeight="1"/>
@@ -3090,6 +3124,7 @@
     <row r="124" ht="12" customHeight="1"/>
     <row r="125" ht="12" customHeight="1"/>
     <row r="126" ht="12" customHeight="1"/>
+    <row r="127" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:S88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="CreatureModel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="227">
   <si>
     <t>id</t>
   </si>
@@ -80,6 +80,21 @@
     <t>备注</t>
   </si>
   <si>
+    <t>Creature/Human/Human_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2.5;0,-150</t>
+  </si>
+  <si>
+    <t>4;0,-150</t>
+  </si>
+  <si>
+    <t>人类</t>
+  </si>
+  <si>
     <t>Creature/Skeleton/Skeleton_SkeletonData.asset</t>
   </si>
   <si>
@@ -90,21 +105,6 @@
   </si>
   <si>
     <t>骷髅</t>
-  </si>
-  <si>
-    <t>Creature/Human/Human_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2.5;0,-150</t>
-  </si>
-  <si>
-    <t>4;0,-150</t>
-  </si>
-  <si>
-    <t>人类</t>
   </si>
   <si>
     <t>Creature/Slime/Slime_SkeletonData.asset</t>
@@ -725,6 +725,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,6 +733,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -739,12 +741,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -752,6 +756,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -759,6 +764,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,6 +772,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -773,6 +780,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -780,12 +788,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -793,6 +803,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -800,6 +811,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -807,12 +819,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -820,30 +834,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1297,158 +1316,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1799,1309 +1668,1310 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1" style="50"/>
-    <col min="2" max="2" width="84.125" customWidth="1" style="50"/>
-    <col min="3" max="6" width="62.625" customWidth="1" style="50"/>
-    <col min="7" max="7" width="42.875" customWidth="1" style="50"/>
-    <col min="8" max="8" width="25.125" customWidth="1" style="50"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="84.125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="6" width="62.625" customWidth="1"/>
+    <col min="7" max="7" width="42.875" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="50">
+    <row r="4" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:7">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="50">
-        <v>2</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="50">
-        <v>3</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="50">
+    <row r="7" ht="15" customHeight="1" spans="1:7">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="50" t="s">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" ht="27" customHeight="1">
-      <c r="A8" s="50">
+    <row r="8" ht="27" customHeight="1" spans="1:7">
+      <c r="A8">
         <v>989996</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8">
         <v>0.1</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="27" customHeight="1">
-      <c r="A9" s="50">
+    <row r="9" ht="27" customHeight="1" spans="1:7">
+      <c r="A9">
         <v>989997</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9">
         <v>0.3</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" ht="27" customHeight="1">
-      <c r="A10" s="50">
+    <row r="10" ht="27" customHeight="1" spans="1:7">
+      <c r="A10">
         <v>989998</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10">
         <v>0.3</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" ht="27" customHeight="1">
-      <c r="A11" s="50">
+    <row r="11" ht="27" customHeight="1" spans="1:7">
+      <c r="A11">
         <v>989999</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11">
         <v>0.3</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" ht="27" customHeight="1">
-      <c r="A12" s="50">
+    <row r="12" ht="27" customHeight="1" spans="1:6">
+      <c r="A12">
         <v>999947</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" ht="27" customHeight="1">
-      <c r="A13" s="50">
+    <row r="13" ht="27" customHeight="1" spans="1:6">
+      <c r="A13">
         <v>999948</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" ht="27" customHeight="1">
-      <c r="A14" s="50">
+    <row r="14" ht="27" customHeight="1" spans="1:6">
+      <c r="A14">
         <v>999949</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" ht="27" customHeight="1">
-      <c r="A15" s="50">
+    <row r="15" ht="27" customHeight="1" spans="1:6">
+      <c r="A15">
         <v>999950</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" ht="27" customHeight="1">
-      <c r="A16" s="50">
+    <row r="16" ht="27" customHeight="1" spans="1:6">
+      <c r="A16">
         <v>999951</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" ht="27" customHeight="1">
-      <c r="A17" s="50">
+    <row r="17" ht="27" customHeight="1" spans="1:6">
+      <c r="A17">
         <v>999952</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" ht="27" customHeight="1">
-      <c r="A18" s="50">
+    <row r="18" ht="27" customHeight="1" spans="1:6">
+      <c r="A18">
         <v>999953</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" ht="27" customHeight="1">
-      <c r="A19" s="50">
+    <row r="19" ht="27" customHeight="1" spans="1:6">
+      <c r="A19">
         <v>999954</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" ht="27" customHeight="1">
-      <c r="A20" s="50">
+    <row r="20" ht="27" customHeight="1" spans="1:6">
+      <c r="A20">
         <v>999955</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" ht="27" customHeight="1">
-      <c r="A21" s="50">
+    <row r="21" ht="27" customHeight="1" spans="1:6">
+      <c r="A21">
         <v>999956</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" ht="27" customHeight="1">
-      <c r="A22" s="50">
+    <row r="22" ht="27" customHeight="1" spans="1:6">
+      <c r="A22">
         <v>999957</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" ht="27" customHeight="1">
-      <c r="A23" s="50">
+    <row r="23" ht="27" customHeight="1" spans="1:6">
+      <c r="A23">
         <v>999958</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" ht="27" customHeight="1">
-      <c r="A24" s="50">
+    <row r="24" ht="27" customHeight="1" spans="1:6">
+      <c r="A24">
         <v>999959</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" ht="27" customHeight="1">
-      <c r="A25" s="50">
+    <row r="25" ht="27" customHeight="1" spans="1:6">
+      <c r="A25">
         <v>999960</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" ht="27" customHeight="1">
-      <c r="A26" s="50">
+    <row r="26" ht="27" customHeight="1" spans="1:6">
+      <c r="A26">
         <v>999961</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="27" customHeight="1">
-      <c r="A27" s="50">
+    <row r="27" ht="27" customHeight="1" spans="1:6">
+      <c r="A27">
         <v>999962</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" ht="27" customHeight="1">
-      <c r="A28" s="50">
+    <row r="28" ht="27" customHeight="1" spans="1:6">
+      <c r="A28">
         <v>999963</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" ht="27" customHeight="1">
-      <c r="A29" s="50">
+    <row r="29" ht="27" customHeight="1" spans="1:6">
+      <c r="A29">
         <v>999964</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" ht="27" customHeight="1">
-      <c r="A30" s="50">
+    <row r="30" ht="27" customHeight="1" spans="1:6">
+      <c r="A30">
         <v>999965</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" ht="27" customHeight="1">
-      <c r="A31" s="50">
+    <row r="31" ht="27" customHeight="1" spans="1:6">
+      <c r="A31">
         <v>999966</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" ht="27" customHeight="1">
-      <c r="A32" s="50">
+    <row r="32" ht="27" customHeight="1" spans="1:6">
+      <c r="A32">
         <v>999967</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" ht="27" customHeight="1">
-      <c r="A33" s="50">
+    <row r="33" ht="27" customHeight="1" spans="1:6">
+      <c r="A33">
         <v>999968</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" ht="27" customHeight="1">
-      <c r="A34" s="50">
+    <row r="34" ht="27" customHeight="1" spans="1:6">
+      <c r="A34">
         <v>999969</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" ht="27" customHeight="1">
-      <c r="A35" s="50">
+    <row r="35" ht="27" customHeight="1" spans="1:6">
+      <c r="A35">
         <v>999970</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" ht="27" customHeight="1">
-      <c r="A36" s="50">
+    <row r="36" ht="27" customHeight="1" spans="1:6">
+      <c r="A36">
         <v>999971</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" ht="27" customHeight="1">
-      <c r="A37" s="50">
+    <row r="37" ht="27" customHeight="1" spans="1:6">
+      <c r="A37">
         <v>999972</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" ht="27" customHeight="1">
-      <c r="A38" s="50">
+    <row r="38" ht="27" customHeight="1" spans="1:6">
+      <c r="A38">
         <v>999973</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" ht="27" customHeight="1">
-      <c r="A39" s="50">
+    <row r="39" ht="27" customHeight="1" spans="1:6">
+      <c r="A39">
         <v>999974</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" t="s">
         <v>112</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" ht="27" customHeight="1">
-      <c r="A40" s="50">
+    <row r="40" ht="27" customHeight="1" spans="1:6">
+      <c r="A40">
         <v>999975</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" ht="27" customHeight="1">
-      <c r="A41" s="50">
+    <row r="41" ht="27" customHeight="1" spans="1:6">
+      <c r="A41">
         <v>999976</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" ht="27" customHeight="1">
-      <c r="A42" s="50">
+    <row r="42" ht="27" customHeight="1" spans="1:6">
+      <c r="A42">
         <v>999977</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="43" ht="27" customHeight="1">
-      <c r="A43" s="50">
+    <row r="43" ht="27" customHeight="1" spans="1:6">
+      <c r="A43">
         <v>999978</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" ht="27" customHeight="1">
-      <c r="A44" s="50">
+    <row r="44" ht="27" customHeight="1" spans="1:6">
+      <c r="A44">
         <v>999979</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" t="s">
         <v>156</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" t="s">
         <v>153</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" ht="27" customHeight="1">
-      <c r="A45" s="50">
+    <row r="45" ht="27" customHeight="1" spans="1:6">
+      <c r="A45">
         <v>999980</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" t="s">
         <v>159</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" t="s">
         <v>112</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" ht="27" customHeight="1">
-      <c r="A46" s="50">
+    <row r="46" ht="27" customHeight="1" spans="1:6">
+      <c r="A46">
         <v>999981</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" ht="27" customHeight="1">
-      <c r="A47" s="50">
+    <row r="47" ht="27" customHeight="1" spans="1:6">
+      <c r="A47">
         <v>999982</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="F47" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="48" ht="27" customHeight="1">
-      <c r="A48" s="50">
+    <row r="48" ht="27" customHeight="1" spans="1:6">
+      <c r="A48">
         <v>999983</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" t="s">
         <v>167</v>
       </c>
-      <c r="F48" s="50" t="s">
+      <c r="F48" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="49" ht="27" customHeight="1">
-      <c r="A49" s="50">
+    <row r="49" ht="27" customHeight="1" spans="1:6">
+      <c r="A49">
         <v>999984</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" t="s">
         <v>170</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="50" ht="27" customHeight="1">
-      <c r="A50" s="50">
+    <row r="50" ht="27" customHeight="1" spans="1:6">
+      <c r="A50">
         <v>999985</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" t="s">
         <v>174</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="51" ht="27" customHeight="1">
-      <c r="A51" s="50">
+    <row r="51" ht="27" customHeight="1" spans="1:6">
+      <c r="A51">
         <v>999986</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D51" t="s">
         <v>177</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" t="s">
         <v>178</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="F51" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="52" ht="27" customHeight="1">
-      <c r="A52" s="50">
+    <row r="52" ht="27" customHeight="1" spans="1:6">
+      <c r="A52">
         <v>999987</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" t="s">
         <v>180</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" t="s">
         <v>178</v>
       </c>
-      <c r="F52" s="50" t="s">
+      <c r="F52" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="53" ht="27" customHeight="1">
-      <c r="A53" s="50">
+    <row r="53" ht="27" customHeight="1" spans="1:6">
+      <c r="A53">
         <v>999988</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" t="s">
         <v>184</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="E53" t="s">
         <v>185</v>
       </c>
-      <c r="F53" s="50" t="s">
+      <c r="F53" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="54" ht="27" customHeight="1">
-      <c r="A54" s="50">
+    <row r="54" ht="27" customHeight="1" spans="1:6">
+      <c r="A54">
         <v>999989</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" t="s">
         <v>187</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E54" t="s">
         <v>178</v>
       </c>
-      <c r="F54" s="50" t="s">
+      <c r="F54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="55" ht="27" customHeight="1">
-      <c r="A55" s="50">
+    <row r="55" ht="27" customHeight="1" spans="1:7">
+      <c r="A55">
         <v>999990</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" t="s">
         <v>191</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" t="s">
         <v>192</v>
       </c>
-      <c r="F55" s="50" t="s">
+      <c r="F55" t="s">
         <v>193</v>
       </c>
-      <c r="G55" s="50" t="s">
+      <c r="G55" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="56" ht="27" customHeight="1">
-      <c r="A56" s="50">
+    <row r="56" ht="27" customHeight="1" spans="1:6">
+      <c r="A56">
         <v>999991</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C56" t="s">
         <v>196</v>
       </c>
-      <c r="D56" s="50" t="s">
+      <c r="D56" t="s">
         <v>197</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" t="s">
         <v>198</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F56" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="57" ht="27" customHeight="1">
-      <c r="A57" s="50">
+    <row r="57" ht="27" customHeight="1" spans="1:6">
+      <c r="A57">
         <v>999992</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" t="s">
         <v>200</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C57" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" t="s">
         <v>201</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" t="s">
         <v>202</v>
       </c>
-      <c r="F57" s="50" t="s">
+      <c r="F57" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="50">
+    <row r="58" spans="1:7">
+      <c r="A58">
         <v>999993</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="50">
+      <c r="C58">
         <v>0.1</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" t="s">
         <v>204</v>
       </c>
-      <c r="E58" s="50" t="s">
+      <c r="E58" t="s">
         <v>205</v>
       </c>
-      <c r="F58" s="50" t="s">
+      <c r="F58" t="s">
         <v>206</v>
       </c>
-      <c r="G58" s="50" t="s">
+      <c r="G58" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="50">
+    <row r="59" spans="1:7">
+      <c r="A59">
         <v>999994</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" t="s">
         <v>207</v>
       </c>
-      <c r="C59" s="50">
+      <c r="C59">
         <v>0.12</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="50" t="s">
+      <c r="E59" t="s">
         <v>209</v>
       </c>
-      <c r="F59" s="50" t="s">
+      <c r="F59" t="s">
         <v>210</v>
       </c>
-      <c r="G59" s="50" t="s">
+      <c r="G59" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="50">
+    <row r="60" spans="1:7">
+      <c r="A60">
         <v>999995</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" t="s">
         <v>211</v>
       </c>
-      <c r="C60" s="50">
+      <c r="C60">
         <v>0.1</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" t="s">
         <v>212</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="50" t="s">
+      <c r="F60" t="s">
         <v>213</v>
       </c>
-      <c r="G60" s="50" t="s">
+      <c r="G60" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="50">
+    <row r="61" spans="1:7">
+      <c r="A61">
         <v>999996</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61">
         <v>0.1</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" t="s">
         <v>215</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="50" t="s">
+      <c r="F61" t="s">
         <v>216</v>
       </c>
-      <c r="G61" s="50" t="s">
+      <c r="G61" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="50">
+    <row r="62" spans="1:7">
+      <c r="A62">
         <v>999997</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" t="s">
         <v>217</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62">
         <v>0.1</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" t="s">
         <v>218</v>
       </c>
-      <c r="E62" s="50" t="s">
+      <c r="E62" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="50" t="s">
+      <c r="F62" t="s">
         <v>219</v>
       </c>
-      <c r="G62" s="50" t="s">
+      <c r="G62" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1">
-      <c r="A63" s="50">
+    <row r="63" ht="15" customHeight="1" spans="1:7">
+      <c r="A63">
         <v>999998</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" t="s">
         <v>220</v>
       </c>
-      <c r="C63" s="50">
+      <c r="C63">
         <v>0.1</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" t="s">
         <v>221</v>
       </c>
-      <c r="E63" s="50" t="s">
+      <c r="E63" t="s">
         <v>222</v>
       </c>
-      <c r="F63" s="50" t="s">
+      <c r="F63" t="s">
         <v>223</v>
       </c>
-      <c r="G63" s="50" t="s">
+      <c r="G63" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="50">
+    <row r="64" spans="1:7">
+      <c r="A64">
         <v>999999</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" t="s">
         <v>224</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64">
         <v>0.14</v>
       </c>
-      <c r="D64" s="50" t="s">
+      <c r="D64" t="s">
         <v>225</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" t="s">
         <v>136</v>
       </c>
-      <c r="F64" s="50" t="s">
+      <c r="F64" t="s">
         <v>226</v>
       </c>
-      <c r="G64" s="50" t="s">
+      <c r="G64" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3126,7 +2996,7 @@
     <row r="126" ht="12" customHeight="1"/>
     <row r="127" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:S88">
+  <sortState ref="A4:T88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModel" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="226">
   <si>
     <t>id</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Creature/Human/Human_SkeletonData.asset</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>2.5;0,-150</t>
@@ -1673,7 +1670,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1762,17 +1759,17 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1.3</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1780,19 +1777,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
@@ -1800,19 +1797,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1.3</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
@@ -1820,19 +1817,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>1.3</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:7">
@@ -1840,19 +1837,19 @@
         <v>989996</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>0.1</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:7">
@@ -1860,19 +1857,19 @@
         <v>989997</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>0.3</v>
       </c>
       <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:7">
@@ -1880,19 +1877,19 @@
         <v>989998</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.3</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:7">
@@ -1900,19 +1897,19 @@
         <v>989999</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.3</v>
       </c>
       <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:6">
@@ -1920,19 +1917,19 @@
         <v>999947</v>
       </c>
       <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:6">
@@ -1940,19 +1937,19 @@
         <v>999948</v>
       </c>
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:6">
@@ -1960,19 +1957,19 @@
         <v>999949</v>
       </c>
       <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>57</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:6">
@@ -1980,19 +1977,19 @@
         <v>999950</v>
       </c>
       <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:6">
@@ -2000,19 +1997,19 @@
         <v>999951</v>
       </c>
       <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
         <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:6">
@@ -2020,16 +2017,16 @@
         <v>999952</v>
       </c>
       <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:6">
@@ -2037,16 +2034,16 @@
         <v>999953</v>
       </c>
       <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:6">
@@ -2054,19 +2051,19 @@
         <v>999954</v>
       </c>
       <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
         <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:6">
@@ -2074,19 +2071,19 @@
         <v>999955</v>
       </c>
       <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>77</v>
-      </c>
-      <c r="F20" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:6">
@@ -2094,19 +2091,19 @@
         <v>999956</v>
       </c>
       <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>80</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>81</v>
-      </c>
-      <c r="F21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:6">
@@ -2114,19 +2111,19 @@
         <v>999957</v>
       </c>
       <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
         <v>84</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:6">
@@ -2134,19 +2131,19 @@
         <v>999958</v>
       </c>
       <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>87</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
         <v>88</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:6">
@@ -2154,16 +2151,16 @@
         <v>999959</v>
       </c>
       <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
         <v>90</v>
       </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>91</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:6">
@@ -2171,19 +2168,19 @@
         <v>999960</v>
       </c>
       <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
         <v>93</v>
       </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
         <v>94</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:6">
@@ -2191,19 +2188,19 @@
         <v>999961</v>
       </c>
       <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
         <v>96</v>
       </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" t="s">
-        <v>97</v>
-      </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:6">
@@ -2211,19 +2208,19 @@
         <v>999962</v>
       </c>
       <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
         <v>98</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>99</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>100</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>101</v>
-      </c>
-      <c r="F27" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="28" ht="27" customHeight="1" spans="1:6">
@@ -2231,19 +2228,19 @@
         <v>999963</v>
       </c>
       <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
         <v>103</v>
       </c>
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
         <v>104</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="29" ht="27" customHeight="1" spans="1:6">
@@ -2251,19 +2248,19 @@
         <v>999964</v>
       </c>
       <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
         <v>106</v>
       </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>107</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>108</v>
-      </c>
-      <c r="F29" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:6">
@@ -2271,19 +2268,19 @@
         <v>999965</v>
       </c>
       <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
         <v>110</v>
       </c>
-      <c r="C30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>111</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>112</v>
-      </c>
-      <c r="F30" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:6">
@@ -2291,19 +2288,19 @@
         <v>999966</v>
       </c>
       <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
         <v>114</v>
       </c>
-      <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>115</v>
-      </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:6">
@@ -2311,19 +2308,19 @@
         <v>999967</v>
       </c>
       <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
         <v>116</v>
       </c>
-      <c r="C32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
         <v>117</v>
-      </c>
-      <c r="E32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:6">
@@ -2331,19 +2328,19 @@
         <v>999968</v>
       </c>
       <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
         <v>119</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>120</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>121</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>122</v>
-      </c>
-      <c r="F33" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:6">
@@ -2351,19 +2348,19 @@
         <v>999969</v>
       </c>
       <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
         <v>124</v>
       </c>
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" t="s">
-        <v>125</v>
-      </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:6">
@@ -2371,19 +2368,19 @@
         <v>999970</v>
       </c>
       <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
         <v>126</v>
       </c>
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
         <v>127</v>
-      </c>
-      <c r="E35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:6">
@@ -2391,19 +2388,19 @@
         <v>999971</v>
       </c>
       <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
         <v>129</v>
       </c>
-      <c r="C36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
         <v>130</v>
-      </c>
-      <c r="E36" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:6">
@@ -2411,19 +2408,19 @@
         <v>999972</v>
       </c>
       <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
         <v>132</v>
       </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
         <v>133</v>
-      </c>
-      <c r="E37" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="38" ht="27" customHeight="1" spans="1:6">
@@ -2431,16 +2428,16 @@
         <v>999973</v>
       </c>
       <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
         <v>135</v>
       </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>136</v>
-      </c>
-      <c r="F38" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="39" ht="27" customHeight="1" spans="1:6">
@@ -2448,19 +2445,19 @@
         <v>999974</v>
       </c>
       <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
         <v>138</v>
       </c>
-      <c r="C39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" t="s">
         <v>139</v>
-      </c>
-      <c r="E39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="40" ht="27" customHeight="1" spans="1:6">
@@ -2468,19 +2465,19 @@
         <v>999975</v>
       </c>
       <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
         <v>141</v>
       </c>
-      <c r="C40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>142</v>
       </c>
-      <c r="E40" t="s">
-        <v>143</v>
-      </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" ht="27" customHeight="1" spans="1:6">
@@ -2488,19 +2485,19 @@
         <v>999976</v>
       </c>
       <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
         <v>144</v>
       </c>
-      <c r="C41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>145</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>146</v>
-      </c>
-      <c r="F41" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="42" ht="27" customHeight="1" spans="1:6">
@@ -2508,19 +2505,19 @@
         <v>999977</v>
       </c>
       <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" t="s">
         <v>149</v>
-      </c>
-      <c r="E42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="43" ht="27" customHeight="1" spans="1:6">
@@ -2528,19 +2525,19 @@
         <v>999978</v>
       </c>
       <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
         <v>151</v>
       </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>152</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>153</v>
-      </c>
-      <c r="F43" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="44" ht="27" customHeight="1" spans="1:6">
@@ -2548,19 +2545,19 @@
         <v>999979</v>
       </c>
       <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
         <v>155</v>
       </c>
-      <c r="C44" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" t="s">
         <v>156</v>
-      </c>
-      <c r="E44" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="45" ht="27" customHeight="1" spans="1:6">
@@ -2568,19 +2565,19 @@
         <v>999980</v>
       </c>
       <c r="B45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
         <v>158</v>
       </c>
-      <c r="C45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" t="s">
-        <v>159</v>
-      </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" ht="27" customHeight="1" spans="1:6">
@@ -2588,16 +2585,16 @@
         <v>999981</v>
       </c>
       <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
         <v>160</v>
       </c>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>161</v>
-      </c>
-      <c r="F46" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="47" ht="27" customHeight="1" spans="1:6">
@@ -2605,19 +2602,19 @@
         <v>999982</v>
       </c>
       <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
         <v>163</v>
       </c>
-      <c r="C47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" t="s">
         <v>164</v>
-      </c>
-      <c r="E47" t="s">
-        <v>143</v>
-      </c>
-      <c r="F47" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:6">
@@ -2625,16 +2622,16 @@
         <v>999983</v>
       </c>
       <c r="B48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" t="s">
         <v>166</v>
       </c>
-      <c r="C48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>167</v>
-      </c>
-      <c r="F48" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="1:6">
@@ -2642,19 +2639,19 @@
         <v>999984</v>
       </c>
       <c r="B49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
         <v>169</v>
       </c>
-      <c r="C49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>170</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>171</v>
-      </c>
-      <c r="F49" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="50" ht="27" customHeight="1" spans="1:6">
@@ -2662,16 +2659,16 @@
         <v>999985</v>
       </c>
       <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" t="s">
         <v>173</v>
       </c>
-      <c r="C50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>174</v>
-      </c>
-      <c r="F50" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="51" ht="27" customHeight="1" spans="1:6">
@@ -2679,19 +2676,19 @@
         <v>999986</v>
       </c>
       <c r="B51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" t="s">
         <v>176</v>
       </c>
-      <c r="C51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>177</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>178</v>
-      </c>
-      <c r="F51" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="52" ht="27" customHeight="1" spans="1:6">
@@ -2699,19 +2696,19 @@
         <v>999987</v>
       </c>
       <c r="B52" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" t="s">
         <v>180</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>181</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" t="s">
         <v>182</v>
-      </c>
-      <c r="E52" t="s">
-        <v>178</v>
-      </c>
-      <c r="F52" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="53" ht="27" customHeight="1" spans="1:6">
@@ -2719,16 +2716,16 @@
         <v>999988</v>
       </c>
       <c r="B53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" t="s">
         <v>184</v>
       </c>
-      <c r="C53" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>185</v>
-      </c>
-      <c r="F53" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="54" ht="27" customHeight="1" spans="1:6">
@@ -2736,19 +2733,19 @@
         <v>999989</v>
       </c>
       <c r="B54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" t="s">
         <v>187</v>
       </c>
-      <c r="C54" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" t="s">
         <v>188</v>
-      </c>
-      <c r="E54" t="s">
-        <v>178</v>
-      </c>
-      <c r="F54" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="55" ht="27" customHeight="1" spans="1:7">
@@ -2756,22 +2753,22 @@
         <v>999990</v>
       </c>
       <c r="B55" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
         <v>190</v>
       </c>
-      <c r="C55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>191</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>192</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>193</v>
-      </c>
-      <c r="G55" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="56" ht="27" customHeight="1" spans="1:6">
@@ -2779,19 +2776,19 @@
         <v>999991</v>
       </c>
       <c r="B56" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" t="s">
         <v>195</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>196</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>197</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>198</v>
-      </c>
-      <c r="F56" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="57" ht="27" customHeight="1" spans="1:6">
@@ -2799,19 +2796,19 @@
         <v>999992</v>
       </c>
       <c r="B57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
         <v>200</v>
       </c>
-      <c r="C57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>201</v>
       </c>
-      <c r="E57" t="s">
-        <v>202</v>
-      </c>
       <c r="F57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2819,22 +2816,22 @@
         <v>999993</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C58">
         <v>0.1</v>
       </c>
       <c r="D58" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" t="s">
         <v>204</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>205</v>
       </c>
-      <c r="F58" t="s">
-        <v>206</v>
-      </c>
       <c r="G58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2842,22 +2839,22 @@
         <v>999994</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C59">
         <v>0.12</v>
       </c>
       <c r="D59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" t="s">
         <v>208</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>209</v>
       </c>
-      <c r="F59" t="s">
-        <v>210</v>
-      </c>
       <c r="G59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2865,22 +2862,22 @@
         <v>999995</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C60">
         <v>0.1</v>
       </c>
       <c r="D60" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" t="s">
         <v>212</v>
       </c>
-      <c r="E60" t="s">
-        <v>178</v>
-      </c>
-      <c r="F60" t="s">
-        <v>213</v>
-      </c>
       <c r="G60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2888,22 +2885,22 @@
         <v>999996</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C61">
         <v>0.1</v>
       </c>
       <c r="D61" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" t="s">
         <v>215</v>
       </c>
-      <c r="E61" t="s">
-        <v>101</v>
-      </c>
-      <c r="F61" t="s">
-        <v>216</v>
-      </c>
       <c r="G61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2911,22 +2908,22 @@
         <v>999997</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C62">
         <v>0.1</v>
       </c>
       <c r="D62" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" t="s">
         <v>218</v>
       </c>
-      <c r="E62" t="s">
-        <v>81</v>
-      </c>
-      <c r="F62" t="s">
-        <v>219</v>
-      </c>
       <c r="G62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="1:7">
@@ -2934,22 +2931,22 @@
         <v>999998</v>
       </c>
       <c r="B63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C63">
         <v>0.1</v>
       </c>
       <c r="D63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" t="s">
         <v>221</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>222</v>
       </c>
-      <c r="F63" t="s">
-        <v>223</v>
-      </c>
       <c r="G63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2957,22 +2954,22 @@
         <v>999999</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C64">
         <v>0.14</v>
       </c>
       <c r="D64" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" t="s">
         <v>225</v>
       </c>
-      <c r="E64" t="s">
-        <v>136</v>
-      </c>
-      <c r="F64" t="s">
-        <v>226</v>
-      </c>
       <c r="G64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModel" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="229">
   <si>
     <t>id</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>魅魔</t>
+  </si>
+  <si>
+    <t>牛头人</t>
+  </si>
+  <si>
+    <t>哥布林</t>
+  </si>
+  <si>
+    <t>兽人</t>
   </si>
   <si>
     <t>Mod/Other_2/Aoliweiya_ChongChong/Aoliweiya_ChongChong_SkeletonData.asset</t>
@@ -1313,8 +1322,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1665,12 +1677,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1832,1149 +1844,1206 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" ht="27" customHeight="1" spans="1:7">
+    <row r="8" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A8">
-        <v>989996</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>1.3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8">
-        <v>0.1</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>1.3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="10" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>1.3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" ht="27" customHeight="1" spans="1:7">
-      <c r="A9">
-        <v>989997</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>0.3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="27" customHeight="1" spans="1:7">
-      <c r="A10">
-        <v>989998</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>0.3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:7">
       <c r="A11">
+        <v>989996</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="27" customHeight="1" spans="1:7">
+      <c r="A12">
+        <v>989997</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="1:7">
+      <c r="A13">
+        <v>989998</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="27" customHeight="1" spans="1:7">
+      <c r="A14">
         <v>989999</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
         <v>0.3</v>
       </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" ht="27" customHeight="1" spans="1:6">
-      <c r="A12">
-        <v>999947</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E14" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F14" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" ht="27" customHeight="1" spans="1:6">
-      <c r="A13">
-        <v>999948</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" ht="27" customHeight="1" spans="1:6">
-      <c r="A14">
-        <v>999949</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
+      <c r="G14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:6">
       <c r="A15">
-        <v>999950</v>
+        <v>999947</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:6">
       <c r="A16">
-        <v>999951</v>
+        <v>999948</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:6">
       <c r="A17">
-        <v>999952</v>
+        <v>999949</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:6">
       <c r="A18">
-        <v>999953</v>
+        <v>999950</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:6">
       <c r="A19">
-        <v>999954</v>
+        <v>999951</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:6">
       <c r="A20">
-        <v>999955</v>
+        <v>999952</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:6">
       <c r="A21">
-        <v>999956</v>
+        <v>999953</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:6">
       <c r="A22">
-        <v>999957</v>
+        <v>999954</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:6">
       <c r="A23">
-        <v>999958</v>
+        <v>999955</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
         <v>80</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:6">
       <c r="A24">
-        <v>999959</v>
+        <v>999956</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:6">
       <c r="A25">
-        <v>999960</v>
+        <v>999957</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
         <v>50</v>
       </c>
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:6">
       <c r="A26">
-        <v>999961</v>
+        <v>999958</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:6">
       <c r="A27">
-        <v>999962</v>
+        <v>999959</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" ht="27" customHeight="1" spans="1:6">
       <c r="A28">
-        <v>999963</v>
+        <v>999960</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" ht="27" customHeight="1" spans="1:6">
       <c r="A29">
-        <v>999964</v>
+        <v>999961</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:6">
       <c r="A30">
-        <v>999965</v>
+        <v>999962</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:6">
       <c r="A31">
-        <v>999966</v>
+        <v>999963</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:6">
       <c r="A32">
-        <v>999967</v>
+        <v>999964</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" t="s">
         <v>111</v>
-      </c>
-      <c r="F32" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:6">
       <c r="A33">
-        <v>999968</v>
+        <v>999965</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:6">
       <c r="A34">
-        <v>999969</v>
+        <v>999966</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
         <v>111</v>
-      </c>
-      <c r="F34" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:6">
       <c r="A35">
-        <v>999970</v>
+        <v>999967</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="F35" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:6">
       <c r="A36">
-        <v>999971</v>
+        <v>999968</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:6">
       <c r="A37">
-        <v>999972</v>
+        <v>999969</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" t="s">
         <v>111</v>
-      </c>
-      <c r="F37" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="38" ht="27" customHeight="1" spans="1:6">
       <c r="A38">
-        <v>999973</v>
+        <v>999970</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" ht="27" customHeight="1" spans="1:6">
       <c r="A39">
-        <v>999974</v>
+        <v>999971</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" ht="27" customHeight="1" spans="1:6">
       <c r="A40">
-        <v>999975</v>
+        <v>999972</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" ht="27" customHeight="1" spans="1:6">
       <c r="A41">
-        <v>999976</v>
+        <v>999973</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" ht="27" customHeight="1" spans="1:6">
       <c r="A42">
-        <v>999977</v>
+        <v>999974</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F42" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" ht="27" customHeight="1" spans="1:6">
       <c r="A43">
-        <v>999978</v>
+        <v>999975</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F43" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" ht="27" customHeight="1" spans="1:6">
       <c r="A44">
-        <v>999979</v>
+        <v>999976</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F44" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" ht="27" customHeight="1" spans="1:6">
       <c r="A45">
-        <v>999980</v>
+        <v>999977</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" ht="27" customHeight="1" spans="1:6">
       <c r="A46">
-        <v>999981</v>
+        <v>999978</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" ht="27" customHeight="1" spans="1:6">
       <c r="A47">
-        <v>999982</v>
+        <v>999979</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F47" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:6">
       <c r="A48">
-        <v>999983</v>
+        <v>999980</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>101</v>
+      </c>
+      <c r="D48" t="s">
+        <v>161</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="F48" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="1:6">
       <c r="A49">
-        <v>999984</v>
+        <v>999981</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F49" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" ht="27" customHeight="1" spans="1:6">
       <c r="A50">
-        <v>999985</v>
+        <v>999982</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>101</v>
+      </c>
+      <c r="D50" t="s">
+        <v>166</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="F50" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" ht="27" customHeight="1" spans="1:6">
       <c r="A51">
-        <v>999986</v>
+        <v>999983</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F51" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" ht="27" customHeight="1" spans="1:6">
       <c r="A52">
-        <v>999987</v>
+        <v>999984</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E52" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F52" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" ht="27" customHeight="1" spans="1:6">
       <c r="A53">
-        <v>999988</v>
+        <v>999985</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F53" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" ht="27" customHeight="1" spans="1:6">
       <c r="A54">
-        <v>999989</v>
+        <v>999986</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E54" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F54" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" ht="27" customHeight="1" spans="1:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" ht="27" customHeight="1" spans="1:6">
       <c r="A55">
-        <v>999990</v>
+        <v>999987</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E55" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F55" t="s">
-        <v>192</v>
-      </c>
-      <c r="G55" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" ht="27" customHeight="1" spans="1:6">
       <c r="A56">
-        <v>999991</v>
+        <v>999988</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
-      </c>
-      <c r="D56" t="s">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F56" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" ht="27" customHeight="1" spans="1:6">
       <c r="A57">
+        <v>999989</v>
+      </c>
+      <c r="B57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" ht="27" customHeight="1" spans="1:7">
+      <c r="A58">
+        <v>999990</v>
+      </c>
+      <c r="B58" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" t="s">
+        <v>195</v>
+      </c>
+      <c r="G58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" ht="27" customHeight="1" spans="1:6">
+      <c r="A59">
+        <v>999991</v>
+      </c>
+      <c r="B59" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" ht="27" customHeight="1" spans="1:6">
+      <c r="A60">
         <v>999992</v>
       </c>
-      <c r="B57" t="s">
-        <v>199</v>
-      </c>
-      <c r="C57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" t="s">
-        <v>200</v>
-      </c>
-      <c r="E57" t="s">
-        <v>201</v>
-      </c>
-      <c r="F57" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>999993</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>202</v>
       </c>
-      <c r="C58">
-        <v>0.1</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" t="s">
         <v>203</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E60" t="s">
         <v>204</v>
       </c>
-      <c r="F58" t="s">
-        <v>205</v>
-      </c>
-      <c r="G58" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>999994</v>
-      </c>
-      <c r="B59" t="s">
-        <v>206</v>
-      </c>
-      <c r="C59">
-        <v>0.12</v>
-      </c>
-      <c r="D59" t="s">
-        <v>207</v>
-      </c>
-      <c r="E59" t="s">
-        <v>208</v>
-      </c>
-      <c r="F59" t="s">
-        <v>209</v>
-      </c>
-      <c r="G59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <v>999995</v>
-      </c>
-      <c r="B60" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60">
-        <v>0.1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>211</v>
-      </c>
-      <c r="E60" t="s">
-        <v>177</v>
-      </c>
       <c r="F60" t="s">
-        <v>212</v>
-      </c>
-      <c r="G60" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>999996</v>
+        <v>999993</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C61">
         <v>0.1</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E61" t="s">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="F61" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G61" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>999997</v>
+        <v>999994</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C62">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D62" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E62" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="F62" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G62" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" ht="15" customHeight="1" spans="1:7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
-        <v>999998</v>
+        <v>999995</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C63">
         <v>0.1</v>
       </c>
       <c r="D63" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E63" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="F63" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G63" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
+        <v>999996</v>
+      </c>
+      <c r="B64" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64">
+        <v>0.1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" t="s">
+        <v>218</v>
+      </c>
+      <c r="G64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>999997</v>
+      </c>
+      <c r="B65" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65">
+        <v>0.1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" t="s">
+        <v>221</v>
+      </c>
+      <c r="G65" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1" spans="1:7">
+      <c r="A66">
+        <v>999998</v>
+      </c>
+      <c r="B66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66">
+        <v>0.1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>223</v>
+      </c>
+      <c r="E66" t="s">
+        <v>224</v>
+      </c>
+      <c r="F66" t="s">
+        <v>225</v>
+      </c>
+      <c r="G66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
         <v>999999</v>
       </c>
-      <c r="B64" t="s">
-        <v>223</v>
-      </c>
-      <c r="C64">
+      <c r="B67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67">
         <v>0.14</v>
       </c>
-      <c r="D64" t="s">
-        <v>224</v>
-      </c>
-      <c r="E64" t="s">
-        <v>135</v>
-      </c>
-      <c r="F64" t="s">
-        <v>225</v>
-      </c>
-      <c r="G64" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" ht="15" customHeight="1"/>
-    <row r="78" ht="15" customHeight="1"/>
-    <row r="79" ht="15" customHeight="1"/>
+      <c r="D67" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" t="s">
+        <v>228</v>
+      </c>
+      <c r="G67" t="s">
+        <v>196</v>
+      </c>
+    </row>
     <row r="80" ht="15" customHeight="1"/>
     <row r="81" ht="15" customHeight="1"/>
     <row r="82" ht="15" customHeight="1"/>
@@ -2983,15 +3052,18 @@
     <row r="85" ht="15" customHeight="1"/>
     <row r="86" ht="15" customHeight="1"/>
     <row r="87" ht="15" customHeight="1"/>
-    <row r="119" ht="12" customHeight="1"/>
-    <row r="120" ht="12" customHeight="1"/>
-    <row r="121" ht="12" customHeight="1"/>
+    <row r="88" ht="15" customHeight="1"/>
+    <row r="89" ht="15" customHeight="1"/>
+    <row r="90" ht="15" customHeight="1"/>
     <row r="122" ht="12" customHeight="1"/>
     <row r="123" ht="12" customHeight="1"/>
     <row r="124" ht="12" customHeight="1"/>
     <row r="125" ht="12" customHeight="1"/>
     <row r="126" ht="12" customHeight="1"/>
     <row r="127" ht="12" customHeight="1"/>
+    <row r="128" ht="12" customHeight="1"/>
+    <row r="129" ht="12" customHeight="1"/>
+    <row r="130" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:T88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="18285" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModel" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="239">
   <si>
     <t>id</t>
   </si>
@@ -128,10 +128,40 @@
     <t>魅魔</t>
   </si>
   <si>
+    <t>Creature/Minotaur/Minotaur_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.8;-25,-100</t>
+  </si>
+  <si>
+    <t>3.5;-20,-130</t>
+  </si>
+  <si>
     <t>牛头人</t>
   </si>
   <si>
+    <t>Creature/Goblin/Goblin_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>3.5;-5,-110</t>
+  </si>
+  <si>
+    <t>5;0,-100</t>
+  </si>
+  <si>
     <t>哥布林</t>
+  </si>
+  <si>
+    <t>Creature/Orc/Orc_SkeletonData.asset</t>
+  </si>
+  <si>
+    <t>2.5;0,-180</t>
+  </si>
+  <si>
+    <t>3.5;10,-160</t>
   </si>
   <si>
     <t>兽人</t>
@@ -1322,11 +1352,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1677,12 +1704,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <selection pane="topRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1764,7 +1791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="4" ht="15" customHeight="1" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1844,64 +1871,64 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="8" ht="15" customHeight="1" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>1.3</v>
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>1.3</v>
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>1.3</v>
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:7">
@@ -1909,19 +1936,19 @@
         <v>989996</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>0.1</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:7">
@@ -1929,19 +1956,19 @@
         <v>989997</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>0.3</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:7">
@@ -1949,19 +1976,19 @@
         <v>989998</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>0.3</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:7">
@@ -1969,19 +1996,19 @@
         <v>989999</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>0.3</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:6">
@@ -1989,19 +2016,19 @@
         <v>999947</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:6">
@@ -2009,19 +2036,19 @@
         <v>999948</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:6">
@@ -2029,19 +2056,19 @@
         <v>999949</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:6">
@@ -2049,19 +2076,19 @@
         <v>999950</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:6">
@@ -2069,19 +2096,19 @@
         <v>999951</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
         <v>65</v>
       </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:6">
@@ -2089,16 +2116,16 @@
         <v>999952</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:6">
@@ -2106,16 +2133,16 @@
         <v>999953</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:6">
@@ -2123,19 +2150,19 @@
         <v>999954</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:6">
@@ -2143,19 +2170,19 @@
         <v>999955</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:6">
@@ -2163,19 +2190,19 @@
         <v>999956</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:6">
@@ -2183,19 +2210,19 @@
         <v>999957</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:6">
@@ -2203,19 +2230,19 @@
         <v>999958</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:6">
@@ -2223,16 +2250,16 @@
         <v>999959</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" ht="27" customHeight="1" spans="1:6">
@@ -2240,19 +2267,19 @@
         <v>999960</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" ht="27" customHeight="1" spans="1:6">
@@ -2260,19 +2287,19 @@
         <v>999961</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:6">
@@ -2280,19 +2307,19 @@
         <v>999962</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:6">
@@ -2300,19 +2327,19 @@
         <v>999963</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:6">
@@ -2320,19 +2347,19 @@
         <v>999964</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:6">
@@ -2340,19 +2367,19 @@
         <v>999965</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:6">
@@ -2360,19 +2387,19 @@
         <v>999966</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:6">
@@ -2380,19 +2407,19 @@
         <v>999967</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:6">
@@ -2400,19 +2427,19 @@
         <v>999968</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:6">
@@ -2420,19 +2447,19 @@
         <v>999969</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" ht="27" customHeight="1" spans="1:6">
@@ -2440,19 +2467,19 @@
         <v>999970</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" ht="27" customHeight="1" spans="1:6">
@@ -2460,19 +2487,19 @@
         <v>999971</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" ht="27" customHeight="1" spans="1:6">
@@ -2480,19 +2507,19 @@
         <v>999972</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" ht="27" customHeight="1" spans="1:6">
@@ -2500,16 +2527,16 @@
         <v>999973</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" ht="27" customHeight="1" spans="1:6">
@@ -2517,19 +2544,19 @@
         <v>999974</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F42" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" ht="27" customHeight="1" spans="1:6">
@@ -2537,19 +2564,19 @@
         <v>999975</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F43" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" ht="27" customHeight="1" spans="1:6">
@@ -2557,19 +2584,19 @@
         <v>999976</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" ht="27" customHeight="1" spans="1:6">
@@ -2577,19 +2604,19 @@
         <v>999977</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F45" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" ht="27" customHeight="1" spans="1:6">
@@ -2597,19 +2624,19 @@
         <v>999978</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" ht="27" customHeight="1" spans="1:6">
@@ -2617,19 +2644,19 @@
         <v>999979</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:6">
@@ -2637,19 +2664,19 @@
         <v>999980</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F48" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="1:6">
@@ -2657,16 +2684,16 @@
         <v>999981</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F49" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" ht="27" customHeight="1" spans="1:6">
@@ -2674,19 +2701,19 @@
         <v>999982</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" ht="27" customHeight="1" spans="1:6">
@@ -2694,16 +2721,16 @@
         <v>999983</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F51" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" ht="27" customHeight="1" spans="1:6">
@@ -2711,19 +2738,19 @@
         <v>999984</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F52" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" ht="27" customHeight="1" spans="1:6">
@@ -2731,16 +2758,16 @@
         <v>999985</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E53" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F53" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" ht="27" customHeight="1" spans="1:6">
@@ -2748,19 +2775,19 @@
         <v>999986</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E54" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F54" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" ht="27" customHeight="1" spans="1:6">
@@ -2768,19 +2795,19 @@
         <v>999987</v>
       </c>
       <c r="B55" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C55" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F55" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" ht="27" customHeight="1" spans="1:6">
@@ -2788,16 +2815,16 @@
         <v>999988</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F56" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" ht="27" customHeight="1" spans="1:6">
@@ -2805,19 +2832,19 @@
         <v>999989</v>
       </c>
       <c r="B57" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" t="s">
         <v>190</v>
       </c>
-      <c r="E57" t="s">
-        <v>180</v>
-      </c>
       <c r="F57" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" ht="27" customHeight="1" spans="1:7">
@@ -2825,22 +2852,22 @@
         <v>999990</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F58" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G58" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" ht="27" customHeight="1" spans="1:6">
@@ -2848,19 +2875,19 @@
         <v>999991</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E59" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F59" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" ht="27" customHeight="1" spans="1:6">
@@ -2868,19 +2895,19 @@
         <v>999992</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E60" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F60" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2888,22 +2915,22 @@
         <v>999993</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C61">
         <v>0.1</v>
       </c>
       <c r="D61" t="s">
+        <v>216</v>
+      </c>
+      <c r="E61" t="s">
+        <v>217</v>
+      </c>
+      <c r="F61" t="s">
+        <v>218</v>
+      </c>
+      <c r="G61" t="s">
         <v>206</v>
-      </c>
-      <c r="E61" t="s">
-        <v>207</v>
-      </c>
-      <c r="F61" t="s">
-        <v>208</v>
-      </c>
-      <c r="G61" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2911,22 +2938,22 @@
         <v>999994</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C62">
         <v>0.12</v>
       </c>
       <c r="D62" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F62" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G62" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2934,22 +2961,22 @@
         <v>999995</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C63">
         <v>0.1</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E63" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F63" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G63" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2957,22 +2984,22 @@
         <v>999996</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C64">
         <v>0.1</v>
       </c>
       <c r="D64" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="G64" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2980,22 +3007,22 @@
         <v>999997</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C65">
         <v>0.1</v>
       </c>
       <c r="D65" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E65" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F65" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G65" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="1:7">
@@ -3003,22 +3030,22 @@
         <v>999998</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C66">
         <v>0.1</v>
       </c>
       <c r="D66" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E66" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F66" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G66" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3026,24 +3053,27 @@
         <v>999999</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C67">
         <v>0.14</v>
       </c>
       <c r="D67" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E67" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F67" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G67" t="s">
-        <v>196</v>
-      </c>
-    </row>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" ht="15" customHeight="1"/>
+    <row r="78" ht="15" customHeight="1"/>
+    <row r="79" ht="15" customHeight="1"/>
     <row r="80" ht="15" customHeight="1"/>
     <row r="81" ht="15" customHeight="1"/>
     <row r="82" ht="15" customHeight="1"/>
@@ -3052,18 +3082,15 @@
     <row r="85" ht="15" customHeight="1"/>
     <row r="86" ht="15" customHeight="1"/>
     <row r="87" ht="15" customHeight="1"/>
-    <row r="88" ht="15" customHeight="1"/>
-    <row r="89" ht="15" customHeight="1"/>
-    <row r="90" ht="15" customHeight="1"/>
+    <row r="119" ht="12" customHeight="1"/>
+    <row r="120" ht="12" customHeight="1"/>
+    <row r="121" ht="12" customHeight="1"/>
     <row r="122" ht="12" customHeight="1"/>
     <row r="123" ht="12" customHeight="1"/>
     <row r="124" ht="12" customHeight="1"/>
     <row r="125" ht="12" customHeight="1"/>
     <row r="126" ht="12" customHeight="1"/>
     <row r="127" ht="12" customHeight="1"/>
-    <row r="128" ht="12" customHeight="1"/>
-    <row r="129" ht="12" customHeight="1"/>
-    <row r="130" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:T88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model[生物模型信息].xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18285" windowHeight="12855"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModel" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="248">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>mark_name</t>
+  </si>
+  <si>
     <t>res_name</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>序号</t>
   </si>
   <si>
+    <t>标记名字</t>
+  </si>
+  <si>
     <t>资源名字</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>Human</t>
+  </si>
+  <si>
     <t>Creature/Human/Human_SkeletonData.asset</t>
   </si>
   <si>
@@ -92,6 +101,9 @@
     <t>人类</t>
   </si>
   <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
     <t>Creature/Skeleton/Skeleton_SkeletonData.asset</t>
   </si>
   <si>
@@ -104,6 +116,9 @@
     <t>骷髅</t>
   </si>
   <si>
+    <t>Slime</t>
+  </si>
+  <si>
     <t>Creature/Slime/Slime_SkeletonData.asset</t>
   </si>
   <si>
@@ -116,6 +131,9 @@
     <t>史莱姆</t>
   </si>
   <si>
+    <t>Succubus</t>
+  </si>
+  <si>
     <t>Creature/Succubus/Succubus_SkeletonData.asset</t>
   </si>
   <si>
@@ -128,6 +146,9 @@
     <t>魅魔</t>
   </si>
   <si>
+    <t>Minotaur</t>
+  </si>
+  <si>
     <t>Creature/Minotaur/Minotaur_SkeletonData.asset</t>
   </si>
   <si>
@@ -143,6 +164,9 @@
     <t>牛头人</t>
   </si>
   <si>
+    <t>Goblin</t>
+  </si>
+  <si>
     <t>Creature/Goblin/Goblin_SkeletonData.asset</t>
   </si>
   <si>
@@ -153,6 +177,9 @@
   </si>
   <si>
     <t>哥布林</t>
+  </si>
+  <si>
+    <t>Orc</t>
   </si>
   <si>
     <t>Creature/Orc/Orc_SkeletonData.asset</t>
@@ -1704,25 +1731,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B58" sqref="B58"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="84.125" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="6" width="62.625" customWidth="1"/>
-    <col min="7" max="7" width="42.875" customWidth="1"/>
-    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="1" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="84.125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="7" width="62.625" customWidth="1"/>
+    <col min="8" max="8" width="42.875" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1744,1331 +1771,1361 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
         <v>1.3</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>1.3</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
         <v>1.3</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:7">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
         <v>1.3</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:7">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:7">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" ht="27" customHeight="1" spans="1:7">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:8">
       <c r="A11">
         <v>989996</v>
       </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
         <v>0.1</v>
       </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" ht="27" customHeight="1" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" ht="27" customHeight="1" spans="1:8">
       <c r="A12">
         <v>989997</v>
       </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12">
         <v>0.3</v>
       </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" ht="27" customHeight="1" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="1:8">
       <c r="A13">
         <v>989998</v>
       </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13">
         <v>0.3</v>
       </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" ht="27" customHeight="1" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" ht="27" customHeight="1" spans="1:8">
       <c r="A14">
         <v>989999</v>
       </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14">
         <v>0.3</v>
       </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" ht="27" customHeight="1" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" ht="27" customHeight="1" spans="1:8">
       <c r="A15">
         <v>999947</v>
       </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" ht="27" customHeight="1" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" ht="27" customHeight="1" spans="1:8">
       <c r="A16">
         <v>999948</v>
       </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" ht="27" customHeight="1" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" ht="27" customHeight="1" spans="1:7">
       <c r="A17">
         <v>999949</v>
       </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" ht="27" customHeight="1" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:7">
       <c r="A18">
         <v>999950</v>
       </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" ht="27" customHeight="1" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:7">
       <c r="A19">
         <v>999951</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
         <v>74</v>
       </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" ht="27" customHeight="1" spans="1:6">
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" ht="27" customHeight="1" spans="1:7">
       <c r="A20">
         <v>999952</v>
       </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
       <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" ht="27" customHeight="1" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" ht="27" customHeight="1" spans="1:7">
       <c r="A21">
         <v>999953</v>
       </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
       <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" ht="27" customHeight="1" spans="1:6">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1" spans="1:7">
       <c r="A22">
         <v>999954</v>
       </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" ht="27" customHeight="1" spans="1:6">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" ht="27" customHeight="1" spans="1:7">
       <c r="A23">
         <v>999955</v>
       </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" ht="27" customHeight="1" spans="1:6">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1" spans="1:7">
       <c r="A24">
         <v>999956</v>
       </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" ht="27" customHeight="1" spans="1:6">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1" spans="1:7">
       <c r="A25">
         <v>999957</v>
       </c>
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" ht="27" customHeight="1" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1" spans="1:7">
       <c r="A26">
         <v>999958</v>
       </c>
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" ht="27" customHeight="1" spans="1:6">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1" spans="1:7">
       <c r="A27">
         <v>999959</v>
       </c>
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
       <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>103</v>
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" ht="27" customHeight="1" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1" spans="1:7">
       <c r="A28">
         <v>999960</v>
       </c>
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" ht="27" customHeight="1" spans="1:6">
+        <v>102</v>
+      </c>
+      <c r="G28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" ht="27" customHeight="1" spans="1:7">
       <c r="A29">
         <v>999961</v>
       </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" ht="27" customHeight="1" spans="1:6">
+        <v>102</v>
+      </c>
+      <c r="G29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" ht="27" customHeight="1" spans="1:7">
       <c r="A30">
         <v>999962</v>
       </c>
-      <c r="B30" t="s">
-        <v>110</v>
-      </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" ht="27" customHeight="1" spans="1:6">
+        <v>122</v>
+      </c>
+      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" ht="27" customHeight="1" spans="1:7">
       <c r="A31">
         <v>999963</v>
       </c>
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" ht="27" customHeight="1" spans="1:6">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" ht="27" customHeight="1" spans="1:7">
       <c r="A32">
         <v>999964</v>
       </c>
-      <c r="B32" t="s">
-        <v>118</v>
-      </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" ht="27" customHeight="1" spans="1:6">
+        <v>129</v>
+      </c>
+      <c r="G32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" ht="27" customHeight="1" spans="1:7">
       <c r="A33">
         <v>999965</v>
       </c>
-      <c r="B33" t="s">
-        <v>122</v>
-      </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" ht="27" customHeight="1" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="G33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" ht="27" customHeight="1" spans="1:7">
       <c r="A34">
         <v>999966</v>
       </c>
-      <c r="B34" t="s">
-        <v>126</v>
-      </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" ht="27" customHeight="1" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="G34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" ht="27" customHeight="1" spans="1:7">
       <c r="A35">
         <v>999967</v>
       </c>
-      <c r="B35" t="s">
-        <v>128</v>
-      </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" ht="27" customHeight="1" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="G35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" ht="27" customHeight="1" spans="1:7">
       <c r="A36">
         <v>999968</v>
       </c>
-      <c r="B36" t="s">
-        <v>131</v>
-      </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" ht="27" customHeight="1" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" ht="27" customHeight="1" spans="1:7">
       <c r="A37">
         <v>999969</v>
       </c>
-      <c r="B37" t="s">
-        <v>136</v>
-      </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" ht="27" customHeight="1" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="G37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" ht="27" customHeight="1" spans="1:7">
       <c r="A38">
         <v>999970</v>
       </c>
-      <c r="B38" t="s">
-        <v>138</v>
-      </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" ht="27" customHeight="1" spans="1:6">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" ht="27" customHeight="1" spans="1:7">
       <c r="A39">
         <v>999971</v>
       </c>
-      <c r="B39" t="s">
-        <v>141</v>
-      </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" ht="27" customHeight="1" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="G39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" ht="27" customHeight="1" spans="1:7">
       <c r="A40">
         <v>999972</v>
       </c>
-      <c r="B40" t="s">
-        <v>144</v>
-      </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" ht="27" customHeight="1" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="G40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" ht="27" customHeight="1" spans="1:7">
       <c r="A41">
         <v>999973</v>
       </c>
-      <c r="B41" t="s">
-        <v>147</v>
-      </c>
       <c r="C41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" t="s">
-        <v>148</v>
+        <v>156</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" ht="27" customHeight="1" spans="1:6">
+        <v>157</v>
+      </c>
+      <c r="G41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" ht="27" customHeight="1" spans="1:7">
       <c r="A42">
         <v>999974</v>
       </c>
-      <c r="B42" t="s">
-        <v>150</v>
-      </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" ht="27" customHeight="1" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="G42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" ht="27" customHeight="1" spans="1:7">
       <c r="A43">
         <v>999975</v>
       </c>
-      <c r="B43" t="s">
-        <v>153</v>
-      </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" ht="27" customHeight="1" spans="1:6">
+        <v>164</v>
+      </c>
+      <c r="G43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" ht="27" customHeight="1" spans="1:7">
       <c r="A44">
         <v>999976</v>
       </c>
-      <c r="B44" t="s">
-        <v>156</v>
-      </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" ht="27" customHeight="1" spans="1:6">
+        <v>167</v>
+      </c>
+      <c r="G44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" ht="27" customHeight="1" spans="1:7">
       <c r="A45">
         <v>999977</v>
       </c>
-      <c r="B45" t="s">
-        <v>160</v>
-      </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" ht="27" customHeight="1" spans="1:6">
+        <v>122</v>
+      </c>
+      <c r="G45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" ht="27" customHeight="1" spans="1:7">
       <c r="A46">
         <v>999978</v>
       </c>
-      <c r="B46" t="s">
-        <v>163</v>
-      </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F46" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" ht="27" customHeight="1" spans="1:6">
+        <v>174</v>
+      </c>
+      <c r="G46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" ht="27" customHeight="1" spans="1:7">
       <c r="A47">
         <v>999979</v>
       </c>
-      <c r="B47" t="s">
-        <v>167</v>
-      </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" ht="27" customHeight="1" spans="1:6">
+        <v>174</v>
+      </c>
+      <c r="G47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" ht="27" customHeight="1" spans="1:7">
       <c r="A48">
         <v>999980</v>
       </c>
-      <c r="B48" t="s">
-        <v>170</v>
-      </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="F48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" ht="27" customHeight="1" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="G48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" ht="27" customHeight="1" spans="1:8">
       <c r="A49">
         <v>999981</v>
       </c>
-      <c r="B49" t="s">
-        <v>172</v>
-      </c>
       <c r="C49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" t="s">
-        <v>173</v>
+        <v>181</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
       </c>
       <c r="F49" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" ht="27" customHeight="1" spans="1:6">
+        <v>182</v>
+      </c>
+      <c r="G49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" ht="27" customHeight="1" spans="1:8">
       <c r="A50">
         <v>999982</v>
       </c>
-      <c r="B50" t="s">
-        <v>175</v>
-      </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="F50" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" ht="27" customHeight="1" spans="1:6">
+        <v>164</v>
+      </c>
+      <c r="G50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" ht="27" customHeight="1" spans="1:8">
       <c r="A51">
         <v>999983</v>
       </c>
-      <c r="B51" t="s">
-        <v>178</v>
-      </c>
       <c r="C51" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" t="s">
-        <v>179</v>
+        <v>187</v>
+      </c>
+      <c r="D51" t="s">
+        <v>84</v>
       </c>
       <c r="F51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" ht="27" customHeight="1" spans="1:6">
+        <v>188</v>
+      </c>
+      <c r="G51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" ht="27" customHeight="1" spans="1:8">
       <c r="A52">
         <v>999984</v>
       </c>
-      <c r="B52" t="s">
-        <v>181</v>
-      </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="E52" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F52" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" ht="27" customHeight="1" spans="1:6">
+        <v>192</v>
+      </c>
+      <c r="G52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" ht="27" customHeight="1" spans="1:8">
       <c r="A53">
         <v>999985</v>
       </c>
-      <c r="B53" t="s">
-        <v>185</v>
-      </c>
       <c r="C53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" t="s">
-        <v>186</v>
+        <v>194</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" ht="27" customHeight="1" spans="1:6">
+        <v>195</v>
+      </c>
+      <c r="G53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" ht="27" customHeight="1" spans="1:8">
       <c r="A54">
         <v>999986</v>
       </c>
-      <c r="B54" t="s">
-        <v>188</v>
-      </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F54" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" ht="27" customHeight="1" spans="1:6">
+        <v>199</v>
+      </c>
+      <c r="G54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" ht="27" customHeight="1" spans="1:8">
       <c r="A55">
         <v>999987</v>
       </c>
-      <c r="B55" t="s">
-        <v>192</v>
-      </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E55" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" ht="27" customHeight="1" spans="1:6">
+        <v>199</v>
+      </c>
+      <c r="G55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" ht="27" customHeight="1" spans="1:8">
       <c r="A56">
         <v>999988</v>
       </c>
-      <c r="B56" t="s">
-        <v>196</v>
-      </c>
       <c r="C56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" t="s">
-        <v>197</v>
+        <v>205</v>
+      </c>
+      <c r="D56" t="s">
+        <v>93</v>
       </c>
       <c r="F56" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" ht="27" customHeight="1" spans="1:6">
+        <v>206</v>
+      </c>
+      <c r="G56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" ht="27" customHeight="1" spans="1:8">
       <c r="A57">
         <v>999989</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" t="s">
         <v>199</v>
       </c>
-      <c r="C57" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" t="s">
-        <v>200</v>
-      </c>
-      <c r="E57" t="s">
-        <v>190</v>
-      </c>
-      <c r="F57" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" ht="27" customHeight="1" spans="1:7">
+      <c r="G57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" ht="27" customHeight="1" spans="1:8">
       <c r="A58">
         <v>999990</v>
       </c>
-      <c r="B58" t="s">
-        <v>202</v>
-      </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F58" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G58" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" ht="27" customHeight="1" spans="1:6">
+        <v>214</v>
+      </c>
+      <c r="H58" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" ht="27" customHeight="1" spans="1:8">
       <c r="A59">
         <v>999991</v>
       </c>
-      <c r="B59" t="s">
-        <v>207</v>
-      </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E59" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F59" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" ht="27" customHeight="1" spans="1:6">
+        <v>219</v>
+      </c>
+      <c r="G59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" ht="27" customHeight="1" spans="1:8">
       <c r="A60">
         <v>999992</v>
       </c>
-      <c r="B60" t="s">
-        <v>212</v>
-      </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="D60" t="s">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c r="E60" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>223</v>
+      </c>
+      <c r="G60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>999993</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61">
+        <v>0.1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>225</v>
+      </c>
+      <c r="F61" t="s">
+        <v>226</v>
+      </c>
+      <c r="G61" t="s">
+        <v>227</v>
+      </c>
+      <c r="H61" t="s">
         <v>215</v>
       </c>
-      <c r="C61">
-        <v>0.1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>216</v>
-      </c>
-      <c r="E61" t="s">
-        <v>217</v>
-      </c>
-      <c r="F61" t="s">
-        <v>218</v>
-      </c>
-      <c r="G61" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>999994</v>
       </c>
-      <c r="B62" t="s">
-        <v>219</v>
-      </c>
-      <c r="C62">
+      <c r="C62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62">
         <v>0.12</v>
       </c>
-      <c r="D62" t="s">
-        <v>220</v>
-      </c>
       <c r="E62" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F62" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G62" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>231</v>
+      </c>
+      <c r="H62" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>999995</v>
       </c>
-      <c r="B63" t="s">
-        <v>223</v>
-      </c>
-      <c r="C63">
+      <c r="C63" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63">
         <v>0.1</v>
       </c>
-      <c r="D63" t="s">
-        <v>224</v>
-      </c>
       <c r="E63" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="F63" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="G63" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>234</v>
+      </c>
+      <c r="H63" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>999996</v>
       </c>
-      <c r="B64" t="s">
-        <v>226</v>
-      </c>
-      <c r="C64">
+      <c r="C64" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64">
         <v>0.1</v>
       </c>
-      <c r="D64" t="s">
-        <v>227</v>
-      </c>
       <c r="E64" t="s">
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="F64" t="s">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="G64" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>237</v>
+      </c>
+      <c r="H64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>999997</v>
       </c>
-      <c r="B65" t="s">
-        <v>229</v>
-      </c>
-      <c r="C65">
+      <c r="C65" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65">
         <v>0.1</v>
       </c>
-      <c r="D65" t="s">
-        <v>230</v>
-      </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="F65" t="s">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="G65" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" ht="15" customHeight="1" spans="1:7">
+        <v>240</v>
+      </c>
+      <c r="H65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1" spans="1:8">
       <c r="A66">
         <v>999998</v>
       </c>
-      <c r="B66" t="s">
-        <v>232</v>
-      </c>
-      <c r="C66">
+      <c r="C66" t="s">
+        <v>241</v>
+      </c>
+      <c r="D66">
         <v>0.1</v>
       </c>
-      <c r="D66" t="s">
-        <v>233</v>
-      </c>
       <c r="E66" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F66" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>244</v>
+      </c>
+      <c r="H66" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>999999</v>
       </c>
-      <c r="B67" t="s">
-        <v>236</v>
-      </c>
-      <c r="C67">
+      <c r="C67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D67">
         <v>0.14</v>
       </c>
-      <c r="D67" t="s">
-        <v>237</v>
-      </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="F67" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="G67" t="s">
-        <v>206</v>
+        <v>247</v>
+      </c>
+      <c r="H67" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1"/>
@@ -3092,7 +3149,7 @@
     <row r="126" ht="12" customHeight="1"/>
     <row r="127" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:T88">
+  <sortState ref="A4:U88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
